--- a/data/15-gene_networks_analysis/Bar-Chart-Analysis_BK20161116.xlsx
+++ b/data/15-gene_networks_analysis/Bar-Chart-Analysis_BK20161116.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26519"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="25875" windowHeight="12840" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="4280" yWindow="0" windowWidth="21220" windowHeight="15280"/>
   </bookViews>
   <sheets>
     <sheet name="optimized_production_rates" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,17 @@
     <sheet name="mse_comparison_dhap4" sheetId="7" r:id="rId6"/>
     <sheet name="mse_comparison_dzap1" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="36">
   <si>
     <t>ABF1</t>
   </si>
@@ -106,47 +111,35 @@
     <t>id</t>
   </si>
   <si>
-    <t>wt</t>
-  </si>
-  <si>
-    <t>dcin5</t>
-  </si>
-  <si>
-    <t>dgln3</t>
-  </si>
-  <si>
-    <t>dhap4</t>
-  </si>
-  <si>
-    <t>dzap1</t>
-  </si>
-  <si>
     <t>Gene</t>
   </si>
   <si>
-    <t>wt MSE</t>
+    <t>WT MSE</t>
   </si>
   <si>
-    <t>dcin5 MSE</t>
+    <t>CIN5 MSE</t>
   </si>
   <si>
-    <t>dgln3 MSE</t>
+    <t>GLN3 MSE</t>
   </si>
   <si>
-    <t>dhap4 MSE</t>
+    <t>HAP4 MSE</t>
   </si>
   <si>
-    <t>dhmo1 MSE</t>
+    <t>HMO1 MSE</t>
   </si>
   <si>
-    <t>dzap1 MSE</t>
+    <t>ZAP1 MSE</t>
+  </si>
+  <si>
+    <t>WT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +172,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -197,12 +206,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -211,7 +224,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="4"/>
@@ -258,7 +275,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>wt</c:v>
+                  <c:v>WT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -360,52 +377,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>5.7591382252151602E-2</c:v>
+                  <c:v>0.0575913822521516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13386077051995146</c:v>
+                  <c:v>0.133860770519951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29000495831757078</c:v>
+                  <c:v>0.290004958317571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15817971463889477</c:v>
+                  <c:v>0.158179714638895</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5298861943696069</c:v>
+                  <c:v>1.529886194369607</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1528159878875472</c:v>
+                  <c:v>1.152815987887547</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18121602900685585</c:v>
+                  <c:v>0.181216029006856</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3601097594850155</c:v>
+                  <c:v>0.360109759485015</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3447714372178523</c:v>
+                  <c:v>2.344771437217852</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.48329066717021735</c:v>
+                  <c:v>0.483290667170217</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.57385254198006319</c:v>
+                  <c:v>0.573852541980063</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0066312765504999</c:v>
+                  <c:v>1.0066312765505</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.22781834436110557</c:v>
+                  <c:v>0.227818344361106</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.15130237614051389</c:v>
+                  <c:v>0.151302376140514</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.78559345347797105</c:v>
+                  <c:v>0.785593453477971</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.12653346989016581</c:v>
+                  <c:v>0.126533469890166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -420,7 +437,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dcin5</c:v>
+                  <c:v>CIN5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -534,7 +551,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dgln3</c:v>
+                  <c:v>GLN3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -636,46 +653,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="5">
-                  <c:v>1.2710036412433154</c:v>
+                  <c:v>1.271003641243315</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16084584396078114</c:v>
+                  <c:v>0.160845843960781</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22037037495467104</c:v>
+                  <c:v>0.220370374954671</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28447758046636562</c:v>
+                  <c:v>0.284477580466366</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2569258717132032</c:v>
+                  <c:v>1.256925871713203</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.18292618613422346</c:v>
+                  <c:v>0.182926186134223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.52015651921259665</c:v>
+                  <c:v>0.520156519212597</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.320347751917089</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1973293602179456</c:v>
+                  <c:v>1.197329360217946</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.28779839939802465</c:v>
+                  <c:v>0.287798399398025</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.3057772442596476</c:v>
+                  <c:v>2.305777244259648</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.5765336788671458</c:v>
+                  <c:v>1.576533678867146</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.53884152986947742</c:v>
+                  <c:v>0.538841529869477</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.79251191598987536</c:v>
+                  <c:v>0.792511915989875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -690,7 +707,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dhap4</c:v>
+                  <c:v>HAP4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -792,49 +809,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="1">
-                  <c:v>0.16323432499926988</c:v>
+                  <c:v>0.16323432499927</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0267702430394277</c:v>
+                  <c:v>2.026770243039428</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9511355519501179</c:v>
+                  <c:v>0.951135551950118</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23511012771516712</c:v>
+                  <c:v>0.235110127715167</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28784140104497197</c:v>
+                  <c:v>0.287841401044972</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6725818440222211</c:v>
+                  <c:v>1.672581844022221</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.23866431013598668</c:v>
+                  <c:v>0.238664310135987</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.8824240577061403</c:v>
+                  <c:v>0.88242405770614</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2093964255556602</c:v>
+                  <c:v>1.20939642555566</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.32038832328011063</c:v>
+                  <c:v>0.320388323280111</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.24117622274449829</c:v>
+                  <c:v>0.241176222744498</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2497459694622715</c:v>
+                  <c:v>1.249745969462271</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.34107830277955481</c:v>
+                  <c:v>0.341078302779555</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.86462662584286076</c:v>
+                  <c:v>0.864626625842861</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.12981371615489459</c:v>
+                  <c:v>0.129813716154895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,7 +866,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dzap1</c:v>
+                  <c:v>ZAP1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -951,52 +968,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>5.756589019470186E-2</c:v>
+                  <c:v>0.0575658901947018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23145434906630083</c:v>
+                  <c:v>0.231454349066301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9156809251889879</c:v>
+                  <c:v>1.915680925188988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.29166693111711317</c:v>
+                  <c:v>0.291666931117113</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.560682304584536E-2</c:v>
+                  <c:v>0.0456068230458454</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2277955092685898</c:v>
+                  <c:v>0.22779550926859</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3572035748040747</c:v>
+                  <c:v>1.357203574804075</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7046201005100143</c:v>
+                  <c:v>1.704620100510014</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.23899233341381584</c:v>
+                  <c:v>0.238992333413816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.10790896541949431</c:v>
+                  <c:v>0.107908965419494</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.14293595507207629</c:v>
+                  <c:v>0.142935955072076</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.30759423527027474</c:v>
+                  <c:v>0.307594235270275</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3538832407580679</c:v>
+                  <c:v>1.353883240758068</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4053763683375113</c:v>
+                  <c:v>1.405376368337511</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.21276403967125621</c:v>
+                  <c:v>0.212764039671256</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.13066169745090392</c:v>
+                  <c:v>0.130661697450904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1011,11 +1028,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="71176192"/>
-        <c:axId val="113012096"/>
+        <c:axId val="-2113474552"/>
+        <c:axId val="2123320040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71176192"/>
+        <c:axId val="-2113474552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1024,7 +1041,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113012096"/>
+        <c:crossAx val="2123320040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1032,7 +1049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113012096"/>
+        <c:axId val="2123320040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1043,7 +1060,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71176192"/>
+        <c:crossAx val="-2113474552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1095,7 +1112,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>wt</c:v>
+                  <c:v>WT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1197,52 +1214,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>5.7591382252151602E-2</c:v>
+                  <c:v>0.0575913822521516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13386077051995146</c:v>
+                  <c:v>0.133860770519951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29000495831757078</c:v>
+                  <c:v>0.290004958317571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15817971463889477</c:v>
+                  <c:v>0.158179714638895</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5298861943696069</c:v>
+                  <c:v>1.529886194369607</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1528159878875472</c:v>
+                  <c:v>1.152815987887547</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18121602900685585</c:v>
+                  <c:v>0.181216029006856</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3601097594850155</c:v>
+                  <c:v>0.360109759485015</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3447714372178523</c:v>
+                  <c:v>2.344771437217852</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.48329066717021735</c:v>
+                  <c:v>0.483290667170217</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.57385254198006319</c:v>
+                  <c:v>0.573852541980063</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0066312765504999</c:v>
+                  <c:v>1.0066312765505</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.22781834436110557</c:v>
+                  <c:v>0.227818344361106</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.15130237614051389</c:v>
+                  <c:v>0.151302376140514</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.78559345347797105</c:v>
+                  <c:v>0.785593453477971</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.12653346989016581</c:v>
+                  <c:v>0.126533469890166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1257,7 +1274,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dgln3</c:v>
+                  <c:v>GLN3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1359,46 +1376,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="5">
-                  <c:v>1.2710036412433154</c:v>
+                  <c:v>1.271003641243315</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16084584396078114</c:v>
+                  <c:v>0.160845843960781</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22037037495467104</c:v>
+                  <c:v>0.220370374954671</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28447758046636562</c:v>
+                  <c:v>0.284477580466366</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2569258717132032</c:v>
+                  <c:v>1.256925871713203</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.18292618613422346</c:v>
+                  <c:v>0.182926186134223</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.52015651921259665</c:v>
+                  <c:v>0.520156519212597</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.320347751917089</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1973293602179456</c:v>
+                  <c:v>1.197329360217946</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.28779839939802465</c:v>
+                  <c:v>0.287798399398025</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.3057772442596476</c:v>
+                  <c:v>2.305777244259648</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.5765336788671458</c:v>
+                  <c:v>1.576533678867146</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.53884152986947742</c:v>
+                  <c:v>0.538841529869477</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.79251191598987536</c:v>
+                  <c:v>0.792511915989875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1413,7 +1430,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dhap4</c:v>
+                  <c:v>HAP4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1515,49 +1532,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="1">
-                  <c:v>0.16323432499926988</c:v>
+                  <c:v>0.16323432499927</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0267702430394277</c:v>
+                  <c:v>2.026770243039428</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9511355519501179</c:v>
+                  <c:v>0.951135551950118</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23511012771516712</c:v>
+                  <c:v>0.235110127715167</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28784140104497197</c:v>
+                  <c:v>0.287841401044972</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6725818440222211</c:v>
+                  <c:v>1.672581844022221</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.23866431013598668</c:v>
+                  <c:v>0.238664310135987</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.8824240577061403</c:v>
+                  <c:v>0.88242405770614</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2093964255556602</c:v>
+                  <c:v>1.20939642555566</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.32038832328011063</c:v>
+                  <c:v>0.320388323280111</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.24117622274449829</c:v>
+                  <c:v>0.241176222744498</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2497459694622715</c:v>
+                  <c:v>1.249745969462271</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.34107830277955481</c:v>
+                  <c:v>0.341078302779555</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.86462662584286076</c:v>
+                  <c:v>0.864626625842861</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.12981371615489459</c:v>
+                  <c:v>0.129813716154895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1572,7 +1589,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dzap1</c:v>
+                  <c:v>ZAP1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1674,52 +1691,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>5.756589019470186E-2</c:v>
+                  <c:v>0.0575658901947018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23145434906630083</c:v>
+                  <c:v>0.231454349066301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9156809251889879</c:v>
+                  <c:v>1.915680925188988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.29166693111711317</c:v>
+                  <c:v>0.291666931117113</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.560682304584536E-2</c:v>
+                  <c:v>0.0456068230458454</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2277955092685898</c:v>
+                  <c:v>0.22779550926859</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3572035748040747</c:v>
+                  <c:v>1.357203574804075</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7046201005100143</c:v>
+                  <c:v>1.704620100510014</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.23899233341381584</c:v>
+                  <c:v>0.238992333413816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.10790896541949431</c:v>
+                  <c:v>0.107908965419494</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.14293595507207629</c:v>
+                  <c:v>0.142935955072076</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.30759423527027474</c:v>
+                  <c:v>0.307594235270275</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3538832407580679</c:v>
+                  <c:v>1.353883240758068</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4053763683375113</c:v>
+                  <c:v>1.405376368337511</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.21276403967125621</c:v>
+                  <c:v>0.212764039671256</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.13066169745090392</c:v>
+                  <c:v>0.130661697450904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1734,11 +1751,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="78825472"/>
-        <c:axId val="113016128"/>
+        <c:axId val="-2079230536"/>
+        <c:axId val="-2079227416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78825472"/>
+        <c:axId val="-2079230536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1747,7 +1764,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113016128"/>
+        <c:crossAx val="-2079227416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1755,7 +1772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113016128"/>
+        <c:axId val="-2079227416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,7 +1783,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78825472"/>
+        <c:crossAx val="-2079230536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1818,7 +1835,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>wt</c:v>
+                  <c:v>WT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1920,52 +1937,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>5.7591382252151602E-2</c:v>
+                  <c:v>0.0575913822521516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26212402839708154</c:v>
+                  <c:v>0.262124028397082</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5168564931748092</c:v>
+                  <c:v>4.51685649317481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3581243044260709</c:v>
+                  <c:v>1.358124304426071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76411388816063042</c:v>
+                  <c:v>0.76411388816063</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6975637872373763</c:v>
+                  <c:v>2.697563787237376</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.422825031475718</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3441263322678942</c:v>
+                  <c:v>1.344126332267894</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.7451397466597762</c:v>
+                  <c:v>-1.745139746659776</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3128831623982176</c:v>
+                  <c:v>1.312883162398218</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.89612965557754209</c:v>
+                  <c:v>0.896129655577542</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2433807255932119</c:v>
+                  <c:v>1.243380725593212</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-3.3940648480900402</c:v>
+                  <c:v>-3.39406484809004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.31282387775833193</c:v>
+                  <c:v>0.312823877758332</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.9816172593664287</c:v>
+                  <c:v>2.981617259366429</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.12653346989016581</c:v>
+                  <c:v>0.126533469890166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1980,7 +1997,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dcin5</c:v>
+                  <c:v>CIN5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2094,7 +2111,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dgln3</c:v>
+                  <c:v>GLN3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2199,43 +2216,43 @@
                   <c:v>0.209399465600768</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.95036344888317004</c:v>
+                  <c:v>0.95036344888317</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22037037495467104</c:v>
+                  <c:v>0.220370374954671</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4824077663028146</c:v>
+                  <c:v>1.482407766302815</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61424595485786815</c:v>
+                  <c:v>0.614245954857868</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.87092237677865147</c:v>
+                  <c:v>0.870922376778651</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6614194061490752</c:v>
+                  <c:v>1.661419406149075</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.3479775608470197E-2</c:v>
+                  <c:v>-0.0134797756084702</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.1415072339668561E-2</c:v>
+                  <c:v>-0.0214150723396686</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.76607819028229507</c:v>
+                  <c:v>0.766078190282295</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.5538776344065082</c:v>
+                  <c:v>-2.553877634406508</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.35100139290608917</c:v>
+                  <c:v>0.351001392906089</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.1083415132358481</c:v>
+                  <c:v>1.108341513235848</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.6923283337438486</c:v>
+                  <c:v>1.692328333743848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2250,7 +2267,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dhap4</c:v>
+                  <c:v>HAP4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2352,49 +2369,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="1">
-                  <c:v>0.6002479054357498</c:v>
+                  <c:v>0.60024790543575</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.7883837756758569</c:v>
+                  <c:v>-1.788383775675857</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3689832320974893</c:v>
+                  <c:v>2.36898323209749</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23511012771516712</c:v>
+                  <c:v>0.235110127715167</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.82055592354002826</c:v>
+                  <c:v>0.820555923540028</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.72661564552165336</c:v>
+                  <c:v>0.726615645521653</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.96802405317712525</c:v>
+                  <c:v>0.968024053177125</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.7489241175100325</c:v>
+                  <c:v>4.748924117510032</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0399198136875085</c:v>
+                  <c:v>1.039919813687509</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.57712108036575982</c:v>
+                  <c:v>0.57712108036576</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.32615459120408902</c:v>
+                  <c:v>0.326154591204089</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.59100618491250156</c:v>
+                  <c:v>-0.591006184912502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3042522798656644</c:v>
+                  <c:v>2.304252279865664</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.0953743444913413</c:v>
+                  <c:v>2.095374344491341</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.12981371615489459</c:v>
+                  <c:v>0.129813716154895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2409,7 +2426,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dzap1</c:v>
+                  <c:v>ZAP1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2511,52 +2528,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>5.756589019470186E-2</c:v>
+                  <c:v>0.0575658901947018</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.538999217906269</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.5369344146971744</c:v>
+                  <c:v>-0.536934414697174</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.3546340515924104E-2</c:v>
+                  <c:v>-0.0235463405159241</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.94238987428572918</c:v>
+                  <c:v>-0.942389874285729</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2277955092685898</c:v>
+                  <c:v>0.22779550926859</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.44765358721882581</c:v>
+                  <c:v>-0.447653587218826</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.17019996416505118</c:v>
+                  <c:v>0.170199964165051</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38493684794066862</c:v>
+                  <c:v>0.384936847940669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.5031077990090237E-2</c:v>
+                  <c:v>0.0950310779900902</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2642792825791534</c:v>
+                  <c:v>0.264279282579153</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.97087059584455E-2</c:v>
+                  <c:v>-0.0397087059584455</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.64778281971241325</c:v>
+                  <c:v>-0.647782819712413</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7174586906160556</c:v>
+                  <c:v>1.717458690616056</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.7446080012490484</c:v>
+                  <c:v>-2.744608001249048</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.13066169745090392</c:v>
+                  <c:v>0.130661697450904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2571,11 +2588,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="68094464"/>
-        <c:axId val="112995712"/>
+        <c:axId val="-2079155928"/>
+        <c:axId val="-2079152872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68094464"/>
+        <c:axId val="-2079155928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2584,7 +2601,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112995712"/>
+        <c:crossAx val="-2079152872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2592,7 +2609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112995712"/>
+        <c:axId val="-2079152872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2603,7 +2620,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68094464"/>
+        <c:crossAx val="-2079155928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2655,7 +2672,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>wt</c:v>
+                  <c:v>WT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2757,52 +2774,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>5.7591382252151602E-2</c:v>
+                  <c:v>0.0575913822521516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26212402839708154</c:v>
+                  <c:v>0.262124028397082</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5168564931748092</c:v>
+                  <c:v>4.51685649317481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3581243044260709</c:v>
+                  <c:v>1.358124304426071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76411388816063042</c:v>
+                  <c:v>0.76411388816063</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6975637872373763</c:v>
+                  <c:v>2.697563787237376</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.422825031475718</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3441263322678942</c:v>
+                  <c:v>1.344126332267894</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.7451397466597762</c:v>
+                  <c:v>-1.745139746659776</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3128831623982176</c:v>
+                  <c:v>1.312883162398218</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.89612965557754209</c:v>
+                  <c:v>0.896129655577542</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2433807255932119</c:v>
+                  <c:v>1.243380725593212</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-3.3940648480900402</c:v>
+                  <c:v>-3.39406484809004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.31282387775833193</c:v>
+                  <c:v>0.312823877758332</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.9816172593664287</c:v>
+                  <c:v>2.981617259366429</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.12653346989016581</c:v>
+                  <c:v>0.126533469890166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2817,7 +2834,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dgln3</c:v>
+                  <c:v>GLN3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2922,43 +2939,43 @@
                   <c:v>0.209399465600768</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.95036344888317004</c:v>
+                  <c:v>0.95036344888317</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22037037495467104</c:v>
+                  <c:v>0.220370374954671</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4824077663028146</c:v>
+                  <c:v>1.482407766302815</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61424595485786815</c:v>
+                  <c:v>0.614245954857868</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.87092237677865147</c:v>
+                  <c:v>0.870922376778651</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6614194061490752</c:v>
+                  <c:v>1.661419406149075</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.3479775608470197E-2</c:v>
+                  <c:v>-0.0134797756084702</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.1415072339668561E-2</c:v>
+                  <c:v>-0.0214150723396686</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.76607819028229507</c:v>
+                  <c:v>0.766078190282295</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.5538776344065082</c:v>
+                  <c:v>-2.553877634406508</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.35100139290608917</c:v>
+                  <c:v>0.351001392906089</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.1083415132358481</c:v>
+                  <c:v>1.108341513235848</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.6923283337438486</c:v>
+                  <c:v>1.692328333743848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2973,7 +2990,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dhap4</c:v>
+                  <c:v>HAP4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3075,49 +3092,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="1">
-                  <c:v>0.6002479054357498</c:v>
+                  <c:v>0.60024790543575</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.7883837756758569</c:v>
+                  <c:v>-1.788383775675857</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3689832320974893</c:v>
+                  <c:v>2.36898323209749</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23511012771516712</c:v>
+                  <c:v>0.235110127715167</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.82055592354002826</c:v>
+                  <c:v>0.820555923540028</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.72661564552165336</c:v>
+                  <c:v>0.726615645521653</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.96802405317712525</c:v>
+                  <c:v>0.968024053177125</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.7489241175100325</c:v>
+                  <c:v>4.748924117510032</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0399198136875085</c:v>
+                  <c:v>1.039919813687509</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.57712108036575982</c:v>
+                  <c:v>0.57712108036576</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.32615459120408902</c:v>
+                  <c:v>0.326154591204089</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.59100618491250156</c:v>
+                  <c:v>-0.591006184912502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3042522798656644</c:v>
+                  <c:v>2.304252279865664</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.0953743444913413</c:v>
+                  <c:v>2.095374344491341</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.12981371615489459</c:v>
+                  <c:v>0.129813716154895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3132,7 +3149,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dzap1</c:v>
+                  <c:v>ZAP1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3234,52 +3251,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>5.756589019470186E-2</c:v>
+                  <c:v>0.0575658901947018</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.538999217906269</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.5369344146971744</c:v>
+                  <c:v>-0.536934414697174</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.3546340515924104E-2</c:v>
+                  <c:v>-0.0235463405159241</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.94238987428572918</c:v>
+                  <c:v>-0.942389874285729</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2277955092685898</c:v>
+                  <c:v>0.22779550926859</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.44765358721882581</c:v>
+                  <c:v>-0.447653587218826</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.17019996416505118</c:v>
+                  <c:v>0.170199964165051</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38493684794066862</c:v>
+                  <c:v>0.384936847940669</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.5031077990090237E-2</c:v>
+                  <c:v>0.0950310779900902</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2642792825791534</c:v>
+                  <c:v>0.264279282579153</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.97087059584455E-2</c:v>
+                  <c:v>-0.0397087059584455</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.64778281971241325</c:v>
+                  <c:v>-0.647782819712413</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7174586906160556</c:v>
+                  <c:v>1.717458690616056</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.7446080012490484</c:v>
+                  <c:v>-2.744608001249048</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.13066169745090392</c:v>
+                  <c:v>0.130661697450904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3294,11 +3311,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="78824960"/>
-        <c:axId val="115279552"/>
+        <c:axId val="-2078805544"/>
+        <c:axId val="-2078793192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78824960"/>
+        <c:axId val="-2078805544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3307,7 +3324,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115279552"/>
+        <c:crossAx val="-2078793192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3315,7 +3332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115279552"/>
+        <c:axId val="-2078793192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3326,7 +3343,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78824960"/>
+        <c:crossAx val="-2078805544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3378,7 +3395,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>wt MSE</c:v>
+                  <c:v>WT MSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3447,52 +3464,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.67752390214624714</c:v>
+                  <c:v>0.677523902146247</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46909892114100937</c:v>
+                  <c:v>0.469098921141009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93856513542813325</c:v>
+                  <c:v>0.938565135428133</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6743450978679546</c:v>
+                  <c:v>0.674345097867955</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36416033250794566</c:v>
+                  <c:v>0.364160332507946</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89136503542569934</c:v>
+                  <c:v>0.891365035425699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.64241501283242819</c:v>
+                  <c:v>0.642415012832428</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.48737209233226736</c:v>
+                  <c:v>0.487372092332267</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1446123887951982</c:v>
+                  <c:v>2.144612388795198</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61932807797176104</c:v>
+                  <c:v>0.619328077971761</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.48830573844945629</c:v>
+                  <c:v>0.488305738449456</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.98618102634355431</c:v>
+                  <c:v>0.986181026343554</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.29377680238295456</c:v>
+                  <c:v>0.293776802382955</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.79260394721166594</c:v>
+                  <c:v>0.792603947211666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.41028880535104129</c:v>
+                  <c:v>0.410288805351041</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.3671295263550496</c:v>
+                  <c:v>2.36712952635505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3507,7 +3524,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dcin5 MSE</c:v>
+                  <c:v>CIN5 MSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3576,49 +3593,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.68175986300664093</c:v>
+                  <c:v>0.681759863006641</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10955755869999696</c:v>
+                  <c:v>0.109557558699997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3528194760601115</c:v>
+                  <c:v>1.352819476060111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17855179754966474</c:v>
+                  <c:v>0.178551797549665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77839555024688878</c:v>
+                  <c:v>0.778395550246889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25517991916666666</c:v>
+                  <c:v>0.255179919166667</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.297978224994297</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21281844228270799</c:v>
+                  <c:v>0.212818442282708</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1908451765763133</c:v>
+                  <c:v>1.190845176576313</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.69786529328739766</c:v>
+                  <c:v>0.697865293287398</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.44072606225979838</c:v>
+                  <c:v>0.440726062259798</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.24745545286161263</c:v>
+                  <c:v>0.247455452861613</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.74926436008769881</c:v>
+                  <c:v>0.749264360087699</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.64368142124848149</c:v>
+                  <c:v>0.643681421248481</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.73896152292976114</c:v>
+                  <c:v>0.738961522929761</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.68927831304678</c:v>
@@ -3636,7 +3653,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dgln3 MSE</c:v>
+                  <c:v>GLN3 MSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3705,52 +3722,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.87884844531561512</c:v>
+                  <c:v>0.878848445315615</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3105108179898408</c:v>
+                  <c:v>1.310510817989841</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0233121898392878</c:v>
+                  <c:v>1.023312189839288</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59160345400063408</c:v>
+                  <c:v>0.591603454000634</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69862598879580384</c:v>
+                  <c:v>0.698625988795804</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88830155822140933</c:v>
+                  <c:v>0.888301558221409</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2562026229728132</c:v>
+                  <c:v>1.256202622972813</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35326105333333335</c:v>
+                  <c:v>0.353261053333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.354445229507937</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29690116158576435</c:v>
+                  <c:v>0.296901161585764</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.75971243593644699</c:v>
+                  <c:v>0.759712435936447</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.96186518657978748</c:v>
+                  <c:v>0.961865186579787</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.45313107539005143</c:v>
+                  <c:v>0.453131075390051</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.88029287457449901</c:v>
+                  <c:v>0.880292874574499</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7035365737773267</c:v>
+                  <c:v>1.703536573777327</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.6360098939078873</c:v>
+                  <c:v>2.636009893907887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3765,7 +3782,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dhap4 MSE</c:v>
+                  <c:v>HAP4 MSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3834,28 +3851,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.53073785325199385</c:v>
+                  <c:v>0.530737853251994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14662604109419095</c:v>
+                  <c:v>0.146626041094191</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.518796412766795</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38835565571879177</c:v>
+                  <c:v>0.388355655718792</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28319637123241742</c:v>
+                  <c:v>0.283196371232417</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1365828605707986</c:v>
+                  <c:v>1.136582860570799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5999380014741521</c:v>
+                  <c:v>0.599938001474152</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19216769074505044</c:v>
+                  <c:v>0.19216769074505</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.4916199175</c:v>
@@ -3864,22 +3881,22 @@
                   <c:v>2.818578361799227</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19309998814527782</c:v>
+                  <c:v>0.193099988145278</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.18573194587397981</c:v>
+                  <c:v>0.18573194587398</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.23121958769059472</c:v>
+                  <c:v>0.231219587690595</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.31834986773735724</c:v>
+                  <c:v>0.318349867737357</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.76312636523039468</c:v>
+                  <c:v>0.763126365230395</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1206184627239668</c:v>
+                  <c:v>1.120618462723967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3894,7 +3911,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dhmo1 MSE</c:v>
+                  <c:v>HMO1 MSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3963,52 +3980,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1.1568418864133589</c:v>
+                  <c:v>1.156841886413359</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21191213888427143</c:v>
+                  <c:v>0.211912138884271</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9125609961905328</c:v>
+                  <c:v>4.912560996190533</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41919721199488796</c:v>
+                  <c:v>0.419197211994888</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1006982367912113</c:v>
+                  <c:v>1.100698236791211</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75552647825274122</c:v>
+                  <c:v>0.755526478252741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72048105676960328</c:v>
+                  <c:v>0.720481056769603</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23324275680800297</c:v>
+                  <c:v>0.233242756808003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4400059522211928</c:v>
+                  <c:v>1.440005952221193</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5935956166666666</c:v>
+                  <c:v>0.593595616666667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.46181384530357833</c:v>
+                  <c:v>0.461813845303578</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0822835932304564</c:v>
+                  <c:v>1.082283593230456</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.25372910264755733</c:v>
+                  <c:v>0.253729102647557</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3113765361493816</c:v>
+                  <c:v>0.311376536149382</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.66729923242414779</c:v>
+                  <c:v>0.667299232424148</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4380358815876419</c:v>
+                  <c:v>0.438035881587642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4023,7 +4040,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dzap1 MSE</c:v>
+                  <c:v>ZAP1 MSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4092,52 +4109,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1.6717059528311309</c:v>
+                  <c:v>1.671705952831131</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84670802683325153</c:v>
+                  <c:v>0.846708026833251</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66734728059998927</c:v>
+                  <c:v>0.667347280599989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25729090399073767</c:v>
+                  <c:v>0.257290903990738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1566981247546022</c:v>
+                  <c:v>1.156698124754602</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4554926977400644</c:v>
+                  <c:v>1.455492697740064</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26008448675458212</c:v>
+                  <c:v>0.260084486754582</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19022465327568353</c:v>
+                  <c:v>0.190224653275683</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61888656618839188</c:v>
+                  <c:v>0.618886566188392</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.52611961283073205</c:v>
+                  <c:v>0.526119612830732</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2567763946191679</c:v>
+                  <c:v>0.256776394619168</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.31392550154769994</c:v>
+                  <c:v>0.3139255015477</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.25889575279526172</c:v>
+                  <c:v>0.258895752795262</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.46976287341869044</c:v>
+                  <c:v>0.46976287341869</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.52872104272861142</c:v>
+                  <c:v>0.528721042728611</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.9408423933333334</c:v>
+                  <c:v>3.940842393333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4152,11 +4169,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="114642944"/>
-        <c:axId val="165388864"/>
+        <c:axId val="-2078824632"/>
+        <c:axId val="-2078815496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114642944"/>
+        <c:axId val="-2078824632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4165,7 +4182,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165388864"/>
+        <c:crossAx val="-2078815496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4173,7 +4190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165388864"/>
+        <c:axId val="-2078815496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4184,7 +4201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114642944"/>
+        <c:crossAx val="-2078824632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4236,7 +4253,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>wt MSE</c:v>
+                  <c:v>WT MSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4299,46 +4316,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.73196095838846287</c:v>
+                  <c:v>0.731960958388463</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28441547585730625</c:v>
+                  <c:v>0.284415475857306</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45342637964655225</c:v>
+                  <c:v>0.453426379646552</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4608948061007912</c:v>
+                  <c:v>0.460894806100791</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2058735208546802</c:v>
+                  <c:v>2.20587352085468</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64475954754760201</c:v>
+                  <c:v>0.644759547547602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43774998205257776</c:v>
+                  <c:v>0.437749982052578</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5013730923338535</c:v>
+                  <c:v>1.501373092333854</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98487777242194785</c:v>
+                  <c:v>0.984877772421948</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32720893600037404</c:v>
+                  <c:v>0.327208936000374</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.40843235903427011</c:v>
+                  <c:v>0.40843235903427</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3983895595421014</c:v>
+                  <c:v>2.398389559542101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.75535691061280219</c:v>
+                  <c:v>0.755356910612802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.42309070613697153</c:v>
+                  <c:v>0.423090706136972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4353,7 +4370,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dcin5 MSE</c:v>
+                  <c:v>CIN5 MSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4416,46 +4433,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.14496421249999999</c:v>
+                  <c:v>0.1449642125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11871667018009736</c:v>
+                  <c:v>0.118716670180097</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81538764105036476</c:v>
+                  <c:v>0.815387641050365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21030085485672378</c:v>
+                  <c:v>0.210300854856724</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1786077634842786</c:v>
+                  <c:v>1.178607763484279</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66995000558654283</c:v>
+                  <c:v>0.669950005586543</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43849311791251955</c:v>
+                  <c:v>0.43849311791252</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6277874361547251</c:v>
+                  <c:v>0.627787436154725</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2619316157582125</c:v>
+                  <c:v>0.261931615758212</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.66052658200869196</c:v>
+                  <c:v>0.660526582008692</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.22444515148049549</c:v>
+                  <c:v>0.224445151480495</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4810038545271709</c:v>
+                  <c:v>1.481003854527171</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.62721720810126891</c:v>
+                  <c:v>0.627217208101269</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.79689119036002243</c:v>
+                  <c:v>0.796891190360022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4470,7 +4487,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dgln3 MSE</c:v>
+                  <c:v>GLN3 MSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4533,46 +4550,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.81995604800123834</c:v>
+                  <c:v>0.819956048001238</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24248202470672395</c:v>
+                  <c:v>0.242482024706724</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79846647049787922</c:v>
+                  <c:v>0.798466470497879</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35326105333333335</c:v>
+                  <c:v>0.353261053333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2905826242518879</c:v>
+                  <c:v>1.290582624251888</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30278475982353292</c:v>
+                  <c:v>0.302784759823533</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76788976667560949</c:v>
+                  <c:v>0.767889766675609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0041604632610561</c:v>
+                  <c:v>1.004160463261056</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95976088688505279</c:v>
+                  <c:v>0.959760886885053</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.48812149622299889</c:v>
+                  <c:v>0.488121496222999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2701562313972582</c:v>
+                  <c:v>0.270156231397258</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.58230280615206864</c:v>
+                  <c:v>0.582302806152069</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97974249373728306</c:v>
+                  <c:v>0.979742493737283</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3855619897066838</c:v>
+                  <c:v>1.385561989706684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4587,7 +4604,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dhap4 MSE</c:v>
+                  <c:v>HAP4 MSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4650,46 +4667,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.0714336565602602</c:v>
+                  <c:v>1.07143365656026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42377107330383662</c:v>
+                  <c:v>0.423771073303837</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99429538209623602</c:v>
+                  <c:v>0.994295382096236</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19055156255900554</c:v>
+                  <c:v>0.190551562559006</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.4916199175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7752321822670072</c:v>
+                  <c:v>2.775232182267007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22637127400612189</c:v>
+                  <c:v>0.226371274006122</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.84832098951067192</c:v>
+                  <c:v>0.848320989510672</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18423751642473782</c:v>
+                  <c:v>0.184237516424738</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17935851790222482</c:v>
+                  <c:v>0.179358517902225</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.47534330958917531</c:v>
+                  <c:v>0.475343309589175</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0585255764974113</c:v>
+                  <c:v>1.058525576497411</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.26309154089346093</c:v>
+                  <c:v>0.263091540893461</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.77795102432132301</c:v>
+                  <c:v>0.777951024321323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4704,7 +4721,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dhmo1 MSE</c:v>
+                  <c:v>HMO1 MSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4767,46 +4784,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.74430445493906683</c:v>
+                  <c:v>0.744304454939067</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15046460473685133</c:v>
+                  <c:v>0.150464604736851</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46925600441927212</c:v>
+                  <c:v>0.469256004419272</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21552022493393999</c:v>
+                  <c:v>0.21552022493394</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3921678012940406</c:v>
+                  <c:v>1.392167801294041</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5935956166666666</c:v>
+                  <c:v>0.593595616666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37496426644171071</c:v>
+                  <c:v>0.374964266441711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.71164361498469086</c:v>
+                  <c:v>0.711643614984691</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1808006760628482</c:v>
+                  <c:v>1.180800676062848</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.33465980202409912</c:v>
+                  <c:v>0.334659802024099</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.24294211036626259</c:v>
+                  <c:v>0.242942110366263</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.93924439150083294</c:v>
+                  <c:v>0.939244391500833</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.28948651797476016</c:v>
+                  <c:v>0.28948651797476</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.65675156177689098</c:v>
+                  <c:v>0.656751561776891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4821,11 +4838,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="112578048"/>
-        <c:axId val="112390080"/>
+        <c:axId val="-2078863384"/>
+        <c:axId val="-2078860328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="112578048"/>
+        <c:axId val="-2078863384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4834,7 +4851,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112390080"/>
+        <c:crossAx val="-2078860328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4842,7 +4859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112390080"/>
+        <c:axId val="-2078860328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4853,7 +4870,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112578048"/>
+        <c:crossAx val="-2078863384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4905,7 +4922,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>wt MSE</c:v>
+                  <c:v>WT MSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4971,49 +4988,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.41440039953262886</c:v>
+                  <c:v>0.414400399532629</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25369469220102386</c:v>
+                  <c:v>0.253694692201024</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82940629613405048</c:v>
+                  <c:v>0.82940629613405</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51198786864310453</c:v>
+                  <c:v>0.511987868643105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47437778559787197</c:v>
+                  <c:v>0.474377785597872</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1502614987892006</c:v>
+                  <c:v>2.150261498789201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61777677717849977</c:v>
+                  <c:v>0.6177767771785</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46337793326028848</c:v>
+                  <c:v>0.463377933260288</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98247615136241895</c:v>
+                  <c:v>0.982476151362419</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7965140741142529</c:v>
+                  <c:v>1.796514074114253</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.30902087171181958</c:v>
+                  <c:v>0.30902087171182</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4037689671467431</c:v>
+                  <c:v>0.403768967146743</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.73430959507455362</c:v>
+                  <c:v>0.734309595074554</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.40488731189140875</c:v>
+                  <c:v>0.404887311891409</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3038522344366159</c:v>
+                  <c:v>2.303852234436616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5028,7 +5045,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dcin5 MSE</c:v>
+                  <c:v>CIN5 MSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5094,49 +5111,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>9.6125559930015245E-2</c:v>
+                  <c:v>0.0961255599300152</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30109378613710225</c:v>
+                  <c:v>0.301093786137102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14496421249999999</c:v>
+                  <c:v>0.1449642125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90386833287339108</c:v>
+                  <c:v>0.903868332873391</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20140194838005618</c:v>
+                  <c:v>0.201401948380056</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1610123517988482</c:v>
+                  <c:v>1.161012351798848</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68402435007449203</c:v>
+                  <c:v>0.684024350074492</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3847497850486053</c:v>
+                  <c:v>0.384749785048605</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.30570869561808039</c:v>
+                  <c:v>0.30570869561808</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.87599310627345028</c:v>
+                  <c:v>0.87599310627345</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.69860099663642028</c:v>
+                  <c:v>0.69860099663642</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.22609800708717573</c:v>
+                  <c:v>0.226098007087176</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.62377818807322993</c:v>
+                  <c:v>0.62377818807323</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.73390947251418437</c:v>
+                  <c:v>0.733909472514184</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.67348530385037242</c:v>
+                  <c:v>0.673485303850372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5151,7 +5168,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dgln3 MSE</c:v>
+                  <c:v>GLN3 MSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5217,49 +5234,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.3062098889319873</c:v>
+                  <c:v>1.306209888931987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63437365428263937</c:v>
+                  <c:v>0.634373654282639</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86783925830496511</c:v>
+                  <c:v>0.867839258304965</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76919041994484882</c:v>
+                  <c:v>0.769190419944849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35326105333333335</c:v>
+                  <c:v>0.353261053333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.344340022261781</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2967108331706193</c:v>
+                  <c:v>0.296710833170619</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.76929499267293533</c:v>
+                  <c:v>0.769294992672935</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97055018130886772</c:v>
+                  <c:v>0.970550181308868</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38897409059471405</c:v>
+                  <c:v>0.388974090594714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.46965216642039703</c:v>
+                  <c:v>0.469652166420397</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.28023024122923529</c:v>
+                  <c:v>0.280230241229235</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0424231973311662</c:v>
+                  <c:v>1.042423197331166</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4889767727685099</c:v>
+                  <c:v>1.48897677276851</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2801682539368298</c:v>
+                  <c:v>1.28016825393683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5274,7 +5291,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dhap4 MSE</c:v>
+                  <c:v>HAP4 MSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5340,49 +5357,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.14592903524815279</c:v>
+                  <c:v>0.145929035248153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31596374782002196</c:v>
+                  <c:v>0.315963747820022</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0945408413152697</c:v>
+                  <c:v>1.09454084131527</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88578834024339115</c:v>
+                  <c:v>0.885788340243391</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18676177465043006</c:v>
+                  <c:v>0.18676177465043</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.4916199175</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8276098510313745</c:v>
+                  <c:v>2.827609851031374</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.20693944401855727</c:v>
+                  <c:v>0.206939444018557</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17819758417888518</c:v>
+                  <c:v>0.178197584178885</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17417773164151165</c:v>
+                  <c:v>0.174177731641512</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19112517821070305</c:v>
+                  <c:v>0.191125178210703</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.46422539694767212</c:v>
+                  <c:v>0.464225396947672</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.25337003425490906</c:v>
+                  <c:v>0.253370034254909</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.72383864797139896</c:v>
+                  <c:v>0.723838647971399</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1287154628569909</c:v>
+                  <c:v>1.128715462856991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5397,7 +5414,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dhmo1 MSE</c:v>
+                  <c:v>HMO1 MSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5463,49 +5480,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.21060423929162028</c:v>
+                  <c:v>0.21060423929162</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1926941732394005</c:v>
+                  <c:v>1.1926941732394</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76961312639220225</c:v>
+                  <c:v>0.769613126392202</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.50326301450247235</c:v>
+                  <c:v>0.503263014502472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23700352851722484</c:v>
+                  <c:v>0.237003528517225</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4212046387450117</c:v>
+                  <c:v>1.421204638745012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5935956166666666</c:v>
+                  <c:v>0.593595616666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.44896560763133925</c:v>
+                  <c:v>0.448965607631339</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1858920531986465</c:v>
+                  <c:v>1.185892053198647</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.53337712403695148</c:v>
+                  <c:v>0.533377124036951</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.31999016269585617</c:v>
+                  <c:v>0.319990162695856</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.24136094957976484</c:v>
+                  <c:v>0.241360949579765</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.28705830081307809</c:v>
+                  <c:v>0.287058300813078</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.66091521384756857</c:v>
+                  <c:v>0.660915213847568</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.46081434371304836</c:v>
+                  <c:v>0.460814343713048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5520,7 +5537,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dzap1 MSE</c:v>
+                  <c:v>ZAP1 MSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5586,49 +5603,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.8469574059671362</c:v>
+                  <c:v>0.846957405967136</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1950154094501613</c:v>
+                  <c:v>1.195015409450161</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6775970454193162</c:v>
+                  <c:v>0.677597045419316</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22871937876434981</c:v>
+                  <c:v>0.22871937876435</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17217209917494003</c:v>
+                  <c:v>0.17217209917494</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55998674558159733</c:v>
+                  <c:v>0.559986745581597</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52398856409791594</c:v>
+                  <c:v>0.523988564097916</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24998903063761438</c:v>
+                  <c:v>0.249989030637614</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26950523039653679</c:v>
+                  <c:v>0.269505230396537</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3477030803347387</c:v>
+                  <c:v>1.347703080334739</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.24630355768117995</c:v>
+                  <c:v>0.24630355768118</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.31481754670614853</c:v>
+                  <c:v>0.314817546706148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5273028826356726</c:v>
+                  <c:v>0.527302882635673</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.50397914105966546</c:v>
+                  <c:v>0.503979141059665</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.1590337508333337</c:v>
+                  <c:v>3.159033750833333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5643,11 +5660,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="78825984"/>
-        <c:axId val="165392896"/>
+        <c:axId val="-2109130456"/>
+        <c:axId val="-2104868360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78825984"/>
+        <c:axId val="-2109130456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5656,7 +5673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165392896"/>
+        <c:crossAx val="-2104868360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5664,7 +5681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165392896"/>
+        <c:axId val="-2104868360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5675,7 +5692,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78825984"/>
+        <c:crossAx val="-2109130456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5727,7 +5744,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>wt MSE</c:v>
+                  <c:v>WT MSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5796,52 +5813,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.67729626025267831</c:v>
+                  <c:v>0.677296260252678</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41169576101853356</c:v>
+                  <c:v>0.411695761018534</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82516839909754647</c:v>
+                  <c:v>0.825168399097546</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92413250867198671</c:v>
+                  <c:v>0.924132508671987</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78984569349105582</c:v>
+                  <c:v>0.789845693491056</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4815355458646125</c:v>
+                  <c:v>0.481535545864612</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46153052549383838</c:v>
+                  <c:v>0.461530525493838</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0973692621040572</c:v>
+                  <c:v>2.097369262104057</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61958895824842153</c:v>
+                  <c:v>0.619588958248421</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.77269166647650234</c:v>
+                  <c:v>0.772691666476502</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2271079043972479</c:v>
+                  <c:v>1.227107904397248</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.47216870767989738</c:v>
+                  <c:v>0.472168707679897</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.50056466420532952</c:v>
+                  <c:v>0.50056466420533</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5018473017893825</c:v>
+                  <c:v>1.501847301789383</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.30716901582675282</c:v>
+                  <c:v>0.307169015826753</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.2880222345937802</c:v>
+                  <c:v>2.28802223459378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5856,7 +5873,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dcin5 MSE</c:v>
+                  <c:v>CIN5 MSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5925,52 +5942,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.68196372583370668</c:v>
+                  <c:v>0.681963725833707</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0755553703911349E-2</c:v>
+                  <c:v>0.0907555537039113</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14496421249999999</c:v>
+                  <c:v>0.1449642125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8530275376037784</c:v>
+                  <c:v>4.853027537603778</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4471657794091202</c:v>
+                  <c:v>1.44716577940912</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85882261522630809</c:v>
+                  <c:v>0.858822615226308</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18095537914373436</c:v>
+                  <c:v>0.180955379143734</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1666869615745927</c:v>
+                  <c:v>1.166686961574593</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66258780411756102</c:v>
+                  <c:v>0.662587804117561</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.41254156990608548</c:v>
+                  <c:v>0.412541569906085</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.81534413430145047</c:v>
+                  <c:v>0.81534413430145</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.14147158640062046</c:v>
+                  <c:v>0.14147158640062</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34791371494527046</c:v>
+                  <c:v>0.34791371494527</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.68067030320582</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.66872651468377031</c:v>
+                  <c:v>0.66872651468377</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.66973275430352797</c:v>
+                  <c:v>0.669732754303528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5985,7 +6002,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dgln3 MSE</c:v>
+                  <c:v>GLN3 MSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6054,52 +6071,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.87916471992158929</c:v>
+                  <c:v>0.879164719921589</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2662139957213339</c:v>
+                  <c:v>1.266213995721334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8659384756884041</c:v>
+                  <c:v>0.865938475688404</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6419309949996187</c:v>
+                  <c:v>0.641930994999619</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2363180885799601</c:v>
+                  <c:v>1.23631808857996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78166703838353813</c:v>
+                  <c:v>0.781667038383538</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35326105333333335</c:v>
+                  <c:v>0.353261053333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4351377722084366</c:v>
+                  <c:v>1.435137772208437</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29797261673089431</c:v>
+                  <c:v>0.297972616730894</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.65345810033185181</c:v>
+                  <c:v>0.653458100331852</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1223648880967616</c:v>
+                  <c:v>4.122364888096762</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.16720381109068125</c:v>
+                  <c:v>0.167203811090681</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.81999234601425408</c:v>
+                  <c:v>0.819992346014254</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1841822142286345</c:v>
+                  <c:v>1.184182214228634</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.46271144449365015</c:v>
+                  <c:v>0.46271144449365</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2875125754119034</c:v>
+                  <c:v>1.287512575411903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6114,7 +6131,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dhap4 MSE</c:v>
+                  <c:v>HAP4 MSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6183,52 +6200,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.53025947954429298</c:v>
+                  <c:v>0.530259479544293</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16214248819927449</c:v>
+                  <c:v>0.162142488199274</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0793556031246172</c:v>
+                  <c:v>1.079355603124617</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29513689888758843</c:v>
+                  <c:v>0.295136898887588</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51520515914176368</c:v>
+                  <c:v>0.515205159141764</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93700210751060931</c:v>
+                  <c:v>0.937002107510609</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20109078835214411</c:v>
+                  <c:v>0.201090788352144</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.4916199175</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8517853085641689</c:v>
+                  <c:v>2.851785308564169</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32033548285696783</c:v>
+                  <c:v>0.320335482856968</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3097377304597793</c:v>
+                  <c:v>1.309737730459779</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.18002663828601514</c:v>
+                  <c:v>0.180026638286015</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.22872465853408763</c:v>
+                  <c:v>0.228724658534088</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.76886610169271086</c:v>
+                  <c:v>0.768866101692711</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.19812587386588423</c:v>
+                  <c:v>0.198125873865884</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1365592454667277</c:v>
+                  <c:v>1.136559245466728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6243,7 +6260,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dhmo1 MSE</c:v>
+                  <c:v>HMO1 MSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6312,52 +6329,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1.1571306515172683</c:v>
+                  <c:v>1.157130651517268</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20084316420683759</c:v>
+                  <c:v>0.200843164206838</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76564704068291356</c:v>
+                  <c:v>0.765647040682913</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35507555010719866</c:v>
+                  <c:v>0.355075550107199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7572083071840785</c:v>
+                  <c:v>0.757208307184078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48478824445076824</c:v>
+                  <c:v>0.484788244450768</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.23432433640771</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4556753023026789</c:v>
+                  <c:v>1.455675302302679</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5935956166666666</c:v>
+                  <c:v>0.593595616666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61535216662177405</c:v>
+                  <c:v>0.615352166621774</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1236612648710231</c:v>
+                  <c:v>3.123661264871023</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2564140888766433</c:v>
+                  <c:v>0.256414088876643</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.42145504752954488</c:v>
+                  <c:v>0.421455047529545</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.69437806656040324</c:v>
+                  <c:v>0.694378066560403</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.24226530240080005</c:v>
+                  <c:v>0.2422653024008</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.46691565643604099</c:v>
+                  <c:v>0.466915656436041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6372,7 +6389,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dzap1 MSE</c:v>
+                  <c:v>ZAP1 MSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6441,52 +6458,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1.6716773867175629</c:v>
+                  <c:v>1.671677386717563</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85069235721156122</c:v>
+                  <c:v>0.850692357211561</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67675076209561935</c:v>
+                  <c:v>0.676750762095619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34318667086109916</c:v>
+                  <c:v>0.343186670861099</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.299827948372343</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24300215045470649</c:v>
+                  <c:v>0.243002150454706</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17532868833862839</c:v>
+                  <c:v>0.175328688338628</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66063722812414694</c:v>
+                  <c:v>0.660637228124147</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52267081880756161</c:v>
+                  <c:v>0.522670818807562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32018195409826622</c:v>
+                  <c:v>0.320181954098266</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.7307869550885031</c:v>
+                  <c:v>3.730786955088503</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.30810265338532133</c:v>
+                  <c:v>0.308102653385321</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.26842751593744291</c:v>
+                  <c:v>0.268427515937443</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3855465905327959</c:v>
+                  <c:v>1.385546590532796</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.25304771459963765</c:v>
+                  <c:v>0.253047714599638</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.1590337508333337</c:v>
+                  <c:v>3.159033750833333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6501,11 +6518,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="48253952"/>
-        <c:axId val="159819456"/>
+        <c:axId val="-2079094376"/>
+        <c:axId val="-2079089368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48253952"/>
+        <c:axId val="-2079094376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6514,7 +6531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159819456"/>
+        <c:crossAx val="-2079089368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6522,7 +6539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159819456"/>
+        <c:axId val="-2079089368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6533,7 +6550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48253952"/>
+        <c:crossAx val="-2079094376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7114,36 +7131,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O63" sqref="O63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7154,7 +7171,7 @@
         <v>5.756589019470186E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7168,7 +7185,7 @@
         <v>0.23145434906630083</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -7176,7 +7193,7 @@
         <v>0.29000495831757078</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -7184,7 +7201,7 @@
         <v>0.15817971463889477</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -7195,7 +7212,7 @@
         <v>2.0267702430394277</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -7212,7 +7229,7 @@
         <v>1.9156809251889879</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -7220,7 +7237,7 @@
         <v>0.29166693111711317</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -7228,7 +7245,7 @@
         <v>0.16084584396078114</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -7239,7 +7256,7 @@
         <v>4.560682304584536E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -7253,7 +7270,7 @@
         <v>0.2277955092685898</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -7270,7 +7287,7 @@
         <v>1.3572035748040747</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -7287,7 +7304,7 @@
         <v>1.7046201005100143</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -7304,7 +7321,7 @@
         <v>0.23899233341381584</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -7312,7 +7329,7 @@
         <v>0.10790896541949431</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -7320,7 +7337,7 @@
         <v>0.14293595507207629</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -7328,7 +7345,7 @@
         <v>0.30759423527027474</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -7345,7 +7362,7 @@
         <v>1.3538832407580679</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -7356,12 +7373,12 @@
         <v>1.4053763683375113</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -7375,7 +7392,7 @@
         <v>1.2093964255556602</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -7383,7 +7400,7 @@
         <v>0.32038832328011063</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -7400,7 +7417,7 @@
         <v>0.21276403967125621</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -7411,7 +7428,7 @@
         <v>1.2497459694622715</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -7419,7 +7436,7 @@
         <v>1.5765336788671458</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -7433,7 +7450,7 @@
         <v>0.34107830277955481</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -7447,7 +7464,7 @@
         <v>0.86462662584286076</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -7461,27 +7478,27 @@
         <v>0.13066169745090392</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
@@ -7492,7 +7509,7 @@
         <v>5.756589019470186E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
         <v>1</v>
       </c>
@@ -7506,7 +7523,7 @@
         <v>0.23145434906630083</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -7514,7 +7531,7 @@
         <v>0.29000495831757078</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
         <v>3</v>
       </c>
@@ -7522,7 +7539,7 @@
         <v>0.15817971463889477</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
@@ -7533,7 +7550,7 @@
         <v>2.0267702430394277</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
         <v>5</v>
       </c>
@@ -7550,7 +7567,7 @@
         <v>1.9156809251889879</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
         <v>6</v>
       </c>
@@ -7558,7 +7575,7 @@
         <v>0.29166693111711317</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="3" t="s">
         <v>7</v>
       </c>
@@ -7566,7 +7583,7 @@
         <v>0.16084584396078114</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
         <v>8</v>
       </c>
@@ -7577,7 +7594,7 @@
         <v>4.560682304584536E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
         <v>9</v>
       </c>
@@ -7591,7 +7608,7 @@
         <v>0.2277955092685898</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
         <v>10</v>
       </c>
@@ -7608,7 +7625,7 @@
         <v>1.3572035748040747</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
         <v>11</v>
       </c>
@@ -7625,7 +7642,7 @@
         <v>1.7046201005100143</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
         <v>12</v>
       </c>
@@ -7642,7 +7659,7 @@
         <v>0.23899233341381584</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
         <v>13</v>
       </c>
@@ -7650,7 +7667,7 @@
         <v>0.10790896541949431</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" s="3" t="s">
         <v>14</v>
       </c>
@@ -7658,7 +7675,7 @@
         <v>0.14293595507207629</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
         <v>15</v>
       </c>
@@ -7666,7 +7683,7 @@
         <v>0.30759423527027474</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
         <v>16</v>
       </c>
@@ -7683,7 +7700,7 @@
         <v>1.3538832407580679</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
         <v>17</v>
       </c>
@@ -7694,12 +7711,12 @@
         <v>1.4053763683375113</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
         <v>19</v>
       </c>
@@ -7713,7 +7730,7 @@
         <v>1.2093964255556602</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
         <v>20</v>
       </c>
@@ -7721,7 +7738,7 @@
         <v>0.32038832328011063</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" s="3" t="s">
         <v>21</v>
       </c>
@@ -7738,7 +7755,7 @@
         <v>0.21276403967125621</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
         <v>22</v>
       </c>
@@ -7749,7 +7766,7 @@
         <v>1.2497459694622715</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
         <v>23</v>
       </c>
@@ -7757,7 +7774,7 @@
         <v>1.5765336788671458</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
         <v>24</v>
       </c>
@@ -7771,7 +7788,7 @@
         <v>0.34107830277955481</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5">
       <c r="A61" s="3" t="s">
         <v>25</v>
       </c>
@@ -7785,7 +7802,7 @@
         <v>0.86462662584286076</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5">
       <c r="A62" s="3" t="s">
         <v>26</v>
       </c>
@@ -7801,8 +7818,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7810,36 +7832,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7850,7 +7872,7 @@
         <v>5.756589019470186E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7864,7 +7886,7 @@
         <v>1.538999217906269</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -7872,7 +7894,7 @@
         <v>4.5168564931748092</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -7880,7 +7902,7 @@
         <v>1.3581243044260709</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -7891,7 +7913,7 @@
         <v>-1.7883837756758569</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -7908,7 +7930,7 @@
         <v>-0.5369344146971744</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -7916,7 +7938,7 @@
         <v>-2.3546340515924104E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -7924,7 +7946,7 @@
         <v>0.95036344888317004</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -7935,7 +7957,7 @@
         <v>-0.94238987428572918</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -7949,7 +7971,7 @@
         <v>0.2277955092685898</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -7966,7 +7988,7 @@
         <v>-0.44765358721882581</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -7983,7 +8005,7 @@
         <v>0.17019996416505118</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -8000,7 +8022,7 @@
         <v>0.38493684794066862</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -8008,7 +8030,7 @@
         <v>9.5031077990090237E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -8016,7 +8038,7 @@
         <v>0.2642792825791534</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -8024,7 +8046,7 @@
         <v>-3.97087059584455E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -8041,7 +8063,7 @@
         <v>-0.64778281971241325</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -8052,12 +8074,12 @@
         <v>1.7174586906160556</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -8071,7 +8093,7 @@
         <v>1.0399198136875085</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -8079,7 +8101,7 @@
         <v>0.57712108036575982</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -8096,7 +8118,7 @@
         <v>-2.7446080012490484</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -8107,7 +8129,7 @@
         <v>-0.59100618491250156</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -8115,7 +8137,7 @@
         <v>0.35100139290608917</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -8129,7 +8151,7 @@
         <v>2.3042522798656644</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -8143,7 +8165,7 @@
         <v>2.0953743444913413</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -8157,27 +8179,27 @@
         <v>0.13066169745090392</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
@@ -8188,7 +8210,7 @@
         <v>5.756589019470186E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
@@ -8202,7 +8224,7 @@
         <v>1.538999217906269</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
@@ -8210,7 +8232,7 @@
         <v>4.5168564931748092</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
         <v>3</v>
       </c>
@@ -8218,7 +8240,7 @@
         <v>1.3581243044260709</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -8229,7 +8251,7 @@
         <v>-1.7883837756758569</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -8246,7 +8268,7 @@
         <v>-0.5369344146971744</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
         <v>6</v>
       </c>
@@ -8254,7 +8276,7 @@
         <v>-2.3546340515924104E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
@@ -8262,7 +8284,7 @@
         <v>0.95036344888317004</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -8273,7 +8295,7 @@
         <v>-0.94238987428572918</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
@@ -8287,7 +8309,7 @@
         <v>0.2277955092685898</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
@@ -8304,7 +8326,7 @@
         <v>-0.44765358721882581</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
         <v>11</v>
       </c>
@@ -8321,7 +8343,7 @@
         <v>0.17019996416505118</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
         <v>12</v>
       </c>
@@ -8338,7 +8360,7 @@
         <v>0.38493684794066862</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
         <v>13</v>
       </c>
@@ -8346,7 +8368,7 @@
         <v>9.5031077990090237E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
         <v>14</v>
       </c>
@@ -8354,7 +8376,7 @@
         <v>0.2642792825791534</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
         <v>15</v>
       </c>
@@ -8362,7 +8384,7 @@
         <v>-3.97087059584455E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
         <v>16</v>
       </c>
@@ -8379,7 +8401,7 @@
         <v>-0.64778281971241325</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5">
       <c r="A50" s="3" t="s">
         <v>17</v>
       </c>
@@ -8390,12 +8412,12 @@
         <v>1.7174586906160556</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
         <v>19</v>
       </c>
@@ -8409,7 +8431,7 @@
         <v>1.0399198136875085</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
         <v>20</v>
       </c>
@@ -8417,7 +8439,7 @@
         <v>0.57712108036575982</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
         <v>21</v>
       </c>
@@ -8434,7 +8456,7 @@
         <v>-2.7446080012490484</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
         <v>22</v>
       </c>
@@ -8445,7 +8467,7 @@
         <v>-0.59100618491250156</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
         <v>23</v>
       </c>
@@ -8453,7 +8475,7 @@
         <v>0.35100139290608917</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5">
       <c r="A57" s="3" t="s">
         <v>24</v>
       </c>
@@ -8467,7 +8489,7 @@
         <v>2.3042522798656644</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
         <v>25</v>
       </c>
@@ -8481,7 +8503,7 @@
         <v>2.0953743444913413</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
         <v>26</v>
       </c>
@@ -8498,6 +8520,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8506,35 +8533,35 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8557,7 +8584,7 @@
         <v>1.6717059528311309</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8580,7 +8607,7 @@
         <v>0.84670802683325153</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8603,7 +8630,7 @@
         <v>0.66734728059998927</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8626,7 +8653,7 @@
         <v>0.25729090399073767</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8649,7 +8676,7 @@
         <v>1.1566981247546022</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8672,7 +8699,7 @@
         <v>1.4554926977400644</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -8695,7 +8722,7 @@
         <v>0.26008448675458212</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -8718,7 +8745,7 @@
         <v>0.19022465327568353</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -8741,7 +8768,7 @@
         <v>0.61888656618839188</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -8764,7 +8791,7 @@
         <v>0.52611961283073205</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -8787,7 +8814,7 @@
         <v>0.2567763946191679</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -8810,7 +8837,7 @@
         <v>0.31392550154769994</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -8833,7 +8860,7 @@
         <v>0.25889575279526172</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -8856,7 +8883,7 @@
         <v>0.46976287341869044</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -8879,7 +8906,7 @@
         <v>0.52872104272861142</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -8905,6 +8932,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8916,9 +8948,14 @@
       <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8927,32 +8964,32 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F15"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -8972,7 +9009,7 @@
         <v>0.74430445493906683</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -8992,7 +9029,7 @@
         <v>0.15046460473685133</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -9012,7 +9049,7 @@
         <v>0.46925600441927212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -9032,7 +9069,7 @@
         <v>0.21552022493393999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -9052,7 +9089,7 @@
         <v>1.3921678012940406</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -9072,7 +9109,7 @@
         <v>0.5935956166666666</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -9092,7 +9129,7 @@
         <v>0.37496426644171071</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -9112,7 +9149,7 @@
         <v>0.71164361498469086</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -9132,7 +9169,7 @@
         <v>1.1808006760628482</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -9152,7 +9189,7 @@
         <v>0.33465980202409912</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -9172,7 +9209,7 @@
         <v>0.24294211036626259</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -9192,7 +9229,7 @@
         <v>0.93924439150083294</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -9212,7 +9249,7 @@
         <v>0.28948651797476016</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -9234,7 +9271,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9243,35 +9286,35 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9294,7 +9337,7 @@
         <v>0.8469574059671362</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9317,7 +9360,7 @@
         <v>1.1950154094501613</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -9340,7 +9383,7 @@
         <v>0.6775970454193162</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -9363,7 +9406,7 @@
         <v>0.22871937876434981</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -9386,7 +9429,7 @@
         <v>0.17217209917494003</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -9409,7 +9452,7 @@
         <v>0.55998674558159733</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -9432,7 +9475,7 @@
         <v>0.52398856409791594</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -9455,7 +9498,7 @@
         <v>0.24998903063761438</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -9478,7 +9521,7 @@
         <v>0.26950523039653679</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -9501,7 +9544,7 @@
         <v>1.3477030803347387</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -9524,7 +9567,7 @@
         <v>0.24630355768117995</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -9547,7 +9590,7 @@
         <v>0.31481754670614853</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -9570,7 +9613,7 @@
         <v>0.5273028826356726</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -9593,7 +9636,7 @@
         <v>0.50397914105966546</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -9619,6 +9662,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9626,36 +9674,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9678,7 +9726,7 @@
         <v>1.6716773867175629</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -9701,7 +9749,7 @@
         <v>0.85069235721156122</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -9724,7 +9772,7 @@
         <v>0.67675076209561935</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -9747,7 +9795,7 @@
         <v>0.34318667086109916</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -9770,7 +9818,7 @@
         <v>0.299827948372343</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -9793,7 +9841,7 @@
         <v>0.24300215045470649</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -9816,7 +9864,7 @@
         <v>0.17532868833862839</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -9839,7 +9887,7 @@
         <v>0.66063722812414694</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -9862,7 +9910,7 @@
         <v>0.52267081880756161</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -9885,7 +9933,7 @@
         <v>0.32018195409826622</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -9908,7 +9956,7 @@
         <v>3.7307869550885031</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -9931,7 +9979,7 @@
         <v>0.30810265338532133</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -9954,7 +10002,7 @@
         <v>0.26842751593744291</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -9977,7 +10025,7 @@
         <v>1.3855465905327959</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -10000,7 +10048,7 @@
         <v>0.25304771459963765</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -10025,6 +10073,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/15-gene_networks_analysis/Bar-Chart-Analysis_BK20161116.xlsx
+++ b/data/15-gene_networks_analysis/Bar-Chart-Analysis_BK20161116.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26519"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="0" windowWidth="21220" windowHeight="15280"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="21220" windowHeight="15280" tabRatio="994" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="optimized_production_rates" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="40">
   <si>
     <t>ABF1</t>
   </si>
@@ -134,12 +134,24 @@
   <si>
     <t>WT</t>
   </si>
+  <si>
+    <t>dCIN5 17 Gene Network</t>
+  </si>
+  <si>
+    <t>dCIN5 14 Gene Network</t>
+  </si>
+  <si>
+    <t>CIN5 (14 Genes)</t>
+  </si>
+  <si>
+    <t>CIN5 (17 Genes)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +200,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -206,7 +225,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -216,19 +235,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="4"/>
@@ -271,7 +310,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>optimized_production_rates!$B$1</c:f>
+              <c:f>optimized_production_rates!$B$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -283,7 +322,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>optimized_production_rates!$A$2:$A$28</c:f>
+              <c:f>optimized_production_rates!$A$36:$A$62</c:f>
               <c:strCache>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
@@ -372,7 +411,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>optimized_production_rates!$B$2:$B$28</c:f>
+              <c:f>optimized_production_rates!$B$36:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -433,11 +472,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>optimized_production_rates!$C$1</c:f>
+              <c:f>optimized_production_rates!$C$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CIN5</c:v>
+                  <c:v>GLN3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -445,7 +484,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>optimized_production_rates!$A$2:$A$28</c:f>
+              <c:f>optimized_production_rates!$A$36:$A$62</c:f>
               <c:strCache>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
@@ -534,10 +573,52 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>optimized_production_rates!$C$2:$C$28</c:f>
+              <c:f>optimized_production_rates!$C$36:$C$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
+                <c:pt idx="5">
+                  <c:v>1.271003641243315</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.160845843960781</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.220370374954671</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.284477580466366</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.256925871713203</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.182926186134223</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.520156519212597</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.320347751917089</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.197329360217946</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.287798399398025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.305777244259648</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.576533678867146</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.538841529869477</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.792511915989875</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -547,11 +628,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>optimized_production_rates!$D$1</c:f>
+              <c:f>optimized_production_rates!$D$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GLN3</c:v>
+                  <c:v>HAP4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -559,7 +640,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>optimized_production_rates!$A$2:$A$28</c:f>
+              <c:f>optimized_production_rates!$A$36:$A$62</c:f>
               <c:strCache>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
@@ -648,51 +729,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>optimized_production_rates!$D$2:$D$28</c:f>
+              <c:f>optimized_production_rates!$D$36:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
+                <c:pt idx="1">
+                  <c:v>0.16323432499927</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.026770243039428</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.271003641243315</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.160845843960781</c:v>
+                  <c:v>0.951135551950118</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.220370374954671</c:v>
+                  <c:v>0.235110127715167</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.284477580466366</c:v>
+                  <c:v>0.287841401044972</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.256925871713203</c:v>
+                  <c:v>1.672581844022221</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.182926186134223</c:v>
+                  <c:v>0.238664310135987</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.520156519212597</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.320347751917089</c:v>
+                  <c:v>0.88242405770614</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.197329360217946</c:v>
+                  <c:v>1.20939642555566</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.320388323280111</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.287798399398025</c:v>
+                  <c:v>0.241176222744498</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.305777244259648</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.576533678867146</c:v>
+                  <c:v>1.249745969462271</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.538841529869477</c:v>
+                  <c:v>0.341078302779555</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.792511915989875</c:v>
+                  <c:v>0.864626625842861</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.129813716154895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,11 +787,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>optimized_production_rates!$E$1</c:f>
+              <c:f>optimized_production_rates!$E$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HAP4</c:v>
+                  <c:v>ZAP1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -715,7 +799,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>optimized_production_rates!$A$2:$A$28</c:f>
+              <c:f>optimized_production_rates!$A$36:$A$62</c:f>
               <c:strCache>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
@@ -804,166 +888,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>optimized_production_rates!$E$2:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="1">
-                  <c:v>0.16323432499927</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.026770243039428</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.951135551950118</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.235110127715167</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.287841401044972</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.672581844022221</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.238664310135987</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.88242405770614</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.20939642555566</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.320388323280111</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.241176222744498</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.249745969462271</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.341078302779555</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.864626625842861</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.129813716154895</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>optimized_production_rates!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ZAP1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>optimized_production_rates!$A$2:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>ABF1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ACE2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AFT2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ASF1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ASH1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CIN5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>CST6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CYC8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>GCN4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>GCR2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>GLN3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>HAP4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>HMO1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>HSF1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>MCM1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>MGA2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>MSN2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>MSN4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>RDS3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>SFP1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>STB5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>SWI4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>SWI5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>TEC1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>YHP1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>YOX1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>ZAP1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>optimized_production_rates!$F$2:$F$28</c:f>
+              <c:f>optimized_production_rates!$E$36:$E$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1028,11 +953,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2113474552"/>
-        <c:axId val="2123320040"/>
+        <c:axId val="-2078063384"/>
+        <c:axId val="-2078057928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2113474552"/>
+        <c:axId val="-2078063384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,7 +966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123320040"/>
+        <c:crossAx val="-2078057928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1049,7 +974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2123320040"/>
+        <c:axId val="-2078057928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,7 +985,865 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113474552"/>
+        <c:crossAx val="-2078063384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mse_comparison_dzap1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WT MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>mse_comparison_dzap1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>ABF1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ACE2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CIN5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CST6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GCN4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GCR2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GLN3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>HAP4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HMO1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>HSF1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MCM1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MGA2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>MSN2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MSN4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>SWI4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ZAP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mse_comparison_dzap1!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.677296260252678</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.411695761018534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.825168399097546</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.924132508671987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.789845693491056</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.481535545864612</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.461530525493838</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.097369262104057</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.619588958248421</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.772691666476502</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.227107904397248</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.472168707679897</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50056466420533</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.501847301789383</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.307169015826753</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.28802223459378</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mse_comparison_dzap1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CIN5 MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>mse_comparison_dzap1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>ABF1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ACE2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CIN5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CST6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GCN4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GCR2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GLN3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>HAP4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HMO1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>HSF1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MCM1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MGA2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>MSN2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MSN4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>SWI4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ZAP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mse_comparison_dzap1!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.681963725833707</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0907555537039113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1449642125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.853027537603778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.44716577940912</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.858822615226308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.180955379143734</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.166686961574593</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.662587804117561</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.412541569906085</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81534413430145</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14147158640062</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34791371494527</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.68067030320582</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66872651468377</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.669732754303528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mse_comparison_dzap1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GLN3 MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>mse_comparison_dzap1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>ABF1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ACE2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CIN5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CST6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GCN4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GCR2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GLN3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>HAP4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HMO1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>HSF1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MCM1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MGA2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>MSN2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MSN4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>SWI4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ZAP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mse_comparison_dzap1!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.879164719921589</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.266213995721334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.865938475688404</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.641930994999619</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.23631808857996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.781667038383538</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.353261053333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.435137772208437</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.297972616730894</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.653458100331852</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.122364888096762</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.167203811090681</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.819992346014254</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.184182214228634</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46271144449365</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.287512575411903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mse_comparison_dzap1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HAP4 MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>mse_comparison_dzap1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>ABF1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ACE2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CIN5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CST6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GCN4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GCR2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GLN3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>HAP4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HMO1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>HSF1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MCM1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MGA2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>MSN2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MSN4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>SWI4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ZAP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mse_comparison_dzap1!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.530259479544293</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.162142488199274</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.079355603124617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.295136898887588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.515205159141764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.937002107510609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.201090788352144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4916199175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.851785308564169</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.320335482856968</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.309737730459779</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.180026638286015</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.228724658534088</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.768866101692711</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.198125873865884</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.136559245466728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mse_comparison_dzap1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HMO1 MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>mse_comparison_dzap1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>ABF1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ACE2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CIN5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CST6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GCN4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GCR2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GLN3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>HAP4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HMO1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>HSF1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MCM1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MGA2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>MSN2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MSN4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>SWI4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ZAP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mse_comparison_dzap1!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.157130651517268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.200843164206838</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.765647040682913</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.355075550107199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.757208307184078</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.484788244450768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23432433640771</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.455675302302679</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.593595616666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.615352166621774</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.123661264871023</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.256414088876643</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.421455047529545</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.694378066560403</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2422653024008</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.466915656436041</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mse_comparison_dzap1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZAP1 MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>mse_comparison_dzap1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>ABF1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ACE2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CIN5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CST6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GCN4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GCR2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GLN3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>HAP4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HMO1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>HSF1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>MCM1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MGA2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>MSN2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MSN4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>SWI4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ZAP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mse_comparison_dzap1!$G$2:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.671677386717563</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.850692357211561</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.676750762095619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.343186670861099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.299827948372343</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.243002150454706</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.175328688338628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.660637228124147</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.522670818807562</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.320181954098266</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.730786955088503</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.308102653385321</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.268427515937443</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.385546590532796</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.253047714599638</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.159033750833333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2074371768"/>
+        <c:axId val="-2072863704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2074371768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2072863704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2072863704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2074371768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1089,10 +1872,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1108,7 +1891,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>optimized_production_rates!$B$35</c:f>
+              <c:f>optimized_production_rates!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1120,7 +1903,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>optimized_production_rates!$A$36:$A$62</c:f>
+              <c:f>optimized_production_rates!$A$2:$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
@@ -1209,7 +1992,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>optimized_production_rates!$B$36:$B$62</c:f>
+              <c:f>optimized_production_rates!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1270,11 +2053,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>optimized_production_rates!$C$35</c:f>
+              <c:f>optimized_production_rates!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GLN3</c:v>
+                  <c:v>CIN5 (14 Genes)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1282,7 +2065,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>optimized_production_rates!$A$36:$A$62</c:f>
+              <c:f>optimized_production_rates!$A$2:$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
@@ -1371,51 +2154,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>optimized_production_rates!$C$36:$C$62</c:f>
+              <c:f>optimized_production_rates!$C$2:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="5">
-                  <c:v>1.271003641243315</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.160845843960781</c:v>
+                  <c:v>1.579163579398172</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.220370374954671</c:v>
+                  <c:v>0.225272266318016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.284477580466366</c:v>
+                  <c:v>0.417362842583617</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.256925871713203</c:v>
+                  <c:v>1.07963771087577</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.182926186134223</c:v>
+                  <c:v>0.512220568080633</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.272480476257762</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.520156519212597</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.320347751917089</c:v>
+                  <c:v>2.182960001713384</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.295828424167885</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.197329360217946</c:v>
+                  <c:v>1.410076454034166</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.601204379101917</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.287798399398025</c:v>
+                  <c:v>0.335473197660211</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.305777244259648</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.576533678867146</c:v>
+                  <c:v>1.139993753009473</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.538841529869477</c:v>
+                  <c:v>1.882566711793038</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.792511915989875</c:v>
+                  <c:v>1.366806469059578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1426,11 +2209,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>optimized_production_rates!$D$35</c:f>
+              <c:f>optimized_production_rates!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HAP4</c:v>
+                  <c:v>CIN5 (17 Genes)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1438,7 +2221,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>optimized_production_rates!$A$36:$A$62</c:f>
+              <c:f>optimized_production_rates!$A$2:$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
@@ -1527,54 +2310,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>optimized_production_rates!$D$36:$D$62</c:f>
+              <c:f>optimized_production_rates!$D$2:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="1">
-                  <c:v>0.16323432499927</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.026770243039428</c:v>
+                  <c:v>0.223295285947394</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.951135551950118</c:v>
+                  <c:v>0.846374595966167</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.235110127715167</c:v>
+                  <c:v>0.232776815974584</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.287841401044972</c:v>
+                  <c:v>0.288887594962669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.672581844022221</c:v>
+                  <c:v>1.271103160927129</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.238664310135987</c:v>
+                  <c:v>0.545892922619087</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.144253454393078</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.267409598030602</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.88242405770614</c:v>
+                  <c:v>2.610910744833262</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.199580066058165</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.20939642555566</c:v>
+                  <c:v>0.58640787835643</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.320388323280111</c:v>
+                  <c:v>0.247103713073766</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.241176222744498</c:v>
+                  <c:v>0.275820163764373</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.249745969462271</c:v>
+                  <c:v>0.818282040925328</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.341078302779555</c:v>
+                  <c:v>0.746247554376721</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.864626625842861</c:v>
+                  <c:v>1.114124926307391</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.129813716154895</c:v>
+                  <c:v>0.132194425331235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1585,11 +2374,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>optimized_production_rates!$E$35</c:f>
+              <c:f>optimized_production_rates!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ZAP1</c:v>
+                  <c:v>GLN3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1597,7 +2386,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>optimized_production_rates!$A$36:$A$62</c:f>
+              <c:f>optimized_production_rates!$A$2:$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
@@ -1686,7 +2475,322 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>optimized_production_rates!$E$36:$E$62</c:f>
+              <c:f>optimized_production_rates!$E$2:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="5">
+                  <c:v>1.271003641243315</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.160845843960781</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.220370374954671</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.284477580466366</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.256925871713203</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.182926186134223</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.520156519212597</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.320347751917089</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.197329360217946</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.287798399398025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.305777244259648</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.576533678867146</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.538841529869477</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.792511915989875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>optimized_production_rates!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HAP4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>optimized_production_rates!$A$2:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>ABF1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ACE2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AFT2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ASF1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ASH1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CIN5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CST6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CYC8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GCN4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GCR2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>GLN3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>HAP4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>HMO1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>HSF1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>MCM1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>MGA2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>MSN2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>MSN4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>RDS3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>SFP1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>STB5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>SWI4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>SWI5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>TEC1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>YHP1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>YOX1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>ZAP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>optimized_production_rates!$F$2:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="1">
+                  <c:v>0.16323432499927</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.026770243039428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.951135551950118</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.235110127715167</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.287841401044972</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.672581844022221</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.238664310135987</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.88242405770614</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.20939642555566</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.320388323280111</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.241176222744498</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.249745969462271</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.341078302779555</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.864626625842861</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.129813716154895</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>optimized_production_rates!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZAP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>optimized_production_rates!$A$2:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>ABF1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ACE2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AFT2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ASF1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ASH1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CIN5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CST6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CYC8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GCN4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GCR2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>GLN3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>HAP4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>HMO1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>HSF1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>MCM1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>MGA2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>MSN2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>MSN4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>RDS3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>SFP1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>STB5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>SWI4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>SWI5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>TEC1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>YHP1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>YOX1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>ZAP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>optimized_production_rates!$G$2:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1751,11 +2855,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2079230536"/>
-        <c:axId val="-2079227416"/>
+        <c:axId val="-2028461384"/>
+        <c:axId val="-2028540008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2079230536"/>
+        <c:axId val="-2028461384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1764,7 +2868,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2079227416"/>
+        <c:crossAx val="-2028540008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1772,7 +2876,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2079227416"/>
+        <c:axId val="-2028540008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1783,7 +2887,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2079230536"/>
+        <c:crossAx val="-2028461384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1799,7 +2903,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1831,7 +2935,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>optimized_threshold_b!$B$1</c:f>
+              <c:f>optimized_threshold_b!$B$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1843,7 +2947,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>optimized_threshold_b!$A$2:$A$28</c:f>
+              <c:f>optimized_threshold_b!$A$33:$A$59</c:f>
               <c:strCache>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
@@ -1932,7 +3036,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>optimized_threshold_b!$B$2:$B$28</c:f>
+              <c:f>optimized_threshold_b!$B$33:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1993,11 +3097,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>optimized_threshold_b!$C$1</c:f>
+              <c:f>optimized_threshold_b!$C$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CIN5</c:v>
+                  <c:v>GLN3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2005,7 +3109,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>optimized_threshold_b!$A$2:$A$28</c:f>
+              <c:f>optimized_threshold_b!$A$33:$A$59</c:f>
               <c:strCache>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
@@ -2094,10 +3198,52 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>optimized_threshold_b!$C$2:$C$28</c:f>
+              <c:f>optimized_threshold_b!$C$33:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
+                <c:pt idx="5">
+                  <c:v>0.209399465600768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95036344888317</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.220370374954671</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.482407766302815</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.614245954857868</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.870922376778651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.661419406149075</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.0134797756084702</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.0214150723396686</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.766078190282295</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.553877634406508</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.351001392906089</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.108341513235848</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.692328333743848</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2107,11 +3253,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>optimized_threshold_b!$D$1</c:f>
+              <c:f>optimized_threshold_b!$D$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GLN3</c:v>
+                  <c:v>HAP4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2119,7 +3265,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>optimized_threshold_b!$A$2:$A$28</c:f>
+              <c:f>optimized_threshold_b!$A$33:$A$59</c:f>
               <c:strCache>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
@@ -2208,51 +3354,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>optimized_threshold_b!$D$2:$D$28</c:f>
+              <c:f>optimized_threshold_b!$D$33:$D$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
+                <c:pt idx="1">
+                  <c:v>0.60024790543575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.788383775675857</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.209399465600768</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.95036344888317</c:v>
+                  <c:v>2.36898323209749</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.220370374954671</c:v>
+                  <c:v>0.235110127715167</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.482407766302815</c:v>
+                  <c:v>0.820555923540028</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.614245954857868</c:v>
+                  <c:v>0.726615645521653</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.870922376778651</c:v>
+                  <c:v>0.968024053177125</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.661419406149075</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.0134797756084702</c:v>
+                  <c:v>4.748924117510032</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.0214150723396686</c:v>
+                  <c:v>1.039919813687509</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.57712108036576</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.766078190282295</c:v>
+                  <c:v>0.326154591204089</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.553877634406508</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.351001392906089</c:v>
+                  <c:v>-0.591006184912502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.108341513235848</c:v>
+                  <c:v>2.304252279865664</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.692328333743848</c:v>
+                  <c:v>2.095374344491341</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.129813716154895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2263,11 +3412,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>optimized_threshold_b!$E$1</c:f>
+              <c:f>optimized_threshold_b!$E$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HAP4</c:v>
+                  <c:v>ZAP1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2275,7 +3424,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>optimized_threshold_b!$A$2:$A$28</c:f>
+              <c:f>optimized_threshold_b!$A$33:$A$59</c:f>
               <c:strCache>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
@@ -2364,166 +3513,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>optimized_threshold_b!$E$2:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="1">
-                  <c:v>0.60024790543575</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.788383775675857</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.36898323209749</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.235110127715167</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.820555923540028</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.726615645521653</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.968024053177125</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.748924117510032</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.039919813687509</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.57712108036576</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.326154591204089</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.591006184912502</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.304252279865664</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.095374344491341</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.129813716154895</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>optimized_threshold_b!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ZAP1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>optimized_threshold_b!$A$2:$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>ABF1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ACE2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AFT2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ASF1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ASH1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CIN5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>CST6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CYC8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>GCN4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>GCR2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>GLN3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>HAP4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>HMO1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>HSF1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>MCM1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>MGA2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>MSN2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>MSN4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>RDS3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>SFP1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>STB5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>SWI4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>SWI5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>TEC1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>YHP1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>YOX1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>ZAP1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>optimized_threshold_b!$F$2:$F$28</c:f>
+              <c:f>optimized_threshold_b!$E$33:$E$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -2588,11 +3578,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2079155928"/>
-        <c:axId val="-2079152872"/>
+        <c:axId val="-2041535768"/>
+        <c:axId val="-2042829768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2079155928"/>
+        <c:axId val="-2041535768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2601,7 +3591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2079152872"/>
+        <c:crossAx val="-2042829768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2609,7 +3599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2079152872"/>
+        <c:axId val="-2042829768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2620,7 +3610,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2079155928"/>
+        <c:crossAx val="-2041535768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2649,10 +3639,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2668,7 +3658,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>optimized_threshold_b!$B$32</c:f>
+              <c:f>optimized_threshold_b!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2680,7 +3670,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>optimized_threshold_b!$A$33:$A$59</c:f>
+              <c:f>optimized_threshold_b!$A$2:$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
@@ -2769,12 +3759,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>optimized_threshold_b!$B$33:$B$59</c:f>
+              <c:f>optimized_threshold_b!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.0575913822521516</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.262124028397082</c:v>
@@ -2819,7 +3809,7 @@
                   <c:v>2.981617259366429</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.126533469890166</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2830,11 +3820,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>optimized_threshold_b!$C$32</c:f>
+              <c:f>optimized_threshold_b!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GLN3</c:v>
+                  <c:v>CIN5 (14 Genes)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2842,7 +3832,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>optimized_threshold_b!$A$33:$A$59</c:f>
+              <c:f>optimized_threshold_b!$A$2:$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
@@ -2931,51 +3921,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>optimized_threshold_b!$C$33:$C$59</c:f>
+              <c:f>optimized_threshold_b!$C$2:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="5">
-                  <c:v>0.209399465600768</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.95036344888317</c:v>
+                  <c:v>-0.249977806</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.220370374954671</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.482407766302815</c:v>
+                  <c:v>0.721971218720339</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.614245954857868</c:v>
+                  <c:v>2.178153085800432</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.870922376778651</c:v>
+                  <c:v>1.732411842467356</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.0251654983317954</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.661419406149075</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.0134797756084702</c:v>
+                  <c:v>-1.407545747853095</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.063359759033917</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.0214150723396686</c:v>
+                  <c:v>-0.84878386684105</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.401357975939462</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.766078190282295</c:v>
+                  <c:v>-0.560862942853574</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.553877634406508</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.351001392906089</c:v>
+                  <c:v>-0.515305996827595</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.108341513235848</c:v>
+                  <c:v>-1.813471980888042</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.692328333743848</c:v>
+                  <c:v>-0.227406980062209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2986,11 +3976,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>optimized_threshold_b!$D$32</c:f>
+              <c:f>optimized_threshold_b!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HAP4</c:v>
+                  <c:v>CIN5 (17 Genes)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2998,7 +3988,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>optimized_threshold_b!$A$33:$A$59</c:f>
+              <c:f>optimized_threshold_b!$A$2:$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
@@ -3087,54 +4077,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>optimized_threshold_b!$D$33:$D$59</c:f>
+              <c:f>optimized_threshold_b!$D$2:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="1">
-                  <c:v>0.60024790543575</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.788383775675857</c:v>
+                  <c:v>1.495011742689769</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.36898323209749</c:v>
+                  <c:v>0.375201590234179</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.235110127715167</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.820555923540028</c:v>
+                  <c:v>0.597846209307697</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.726615645521653</c:v>
+                  <c:v>3.129952440484738</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.968024053177125</c:v>
+                  <c:v>1.887730329811488</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.206092752620434</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.0326573613113047</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.748924117510032</c:v>
+                  <c:v>-1.802447768591495</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.659349154383579</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.039919813687509</c:v>
+                  <c:v>0.710663362870508</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.57712108036576</c:v>
+                  <c:v>0.179632115111102</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.326154591204089</c:v>
+                  <c:v>-1.738883921181963</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.591006184912502</c:v>
+                  <c:v>0.124224799630721</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.304252279865664</c:v>
+                  <c:v>0.910934713872158</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.095374344491341</c:v>
+                  <c:v>0.0539253723624353</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.129813716154895</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3145,11 +4141,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>optimized_threshold_b!$E$32</c:f>
+              <c:f>optimized_threshold_b!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ZAP1</c:v>
+                  <c:v>GLN3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3157,7 +4153,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>optimized_threshold_b!$A$33:$A$59</c:f>
+              <c:f>optimized_threshold_b!$A$2:$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
@@ -3246,12 +4242,327 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>optimized_threshold_b!$E$33:$E$59</c:f>
+              <c:f>optimized_threshold_b!$E$2:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0.0575658901947018</c:v>
+                <c:pt idx="5">
+                  <c:v>0.209399465600768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95036344888317</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.482407766302815</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.614245954857868</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.870922376778651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.661419406149075</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.0134797756084702</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.0214150723396686</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.766078190282295</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.553877634406508</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.351001392906089</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.108341513235848</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.692328333743848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>optimized_threshold_b!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HAP4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>optimized_threshold_b!$A$2:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>ABF1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ACE2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AFT2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ASF1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ASH1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CIN5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CST6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CYC8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GCN4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GCR2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>GLN3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>HAP4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>HMO1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>HSF1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>MCM1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>MGA2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>MSN2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>MSN4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>RDS3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>SFP1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>STB5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>SWI4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>SWI5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>TEC1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>YHP1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>YOX1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>ZAP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>optimized_threshold_b!$F$2:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="1">
+                  <c:v>0.60024790543575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.788383775675857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.36898323209749</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.820555923540028</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.726615645521653</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.968024053177125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.748924117510032</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.039919813687509</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.57712108036576</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.326154591204089</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.591006184912502</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.304252279865664</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.095374344491341</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>optimized_threshold_b!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZAP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>optimized_threshold_b!$A$2:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>ABF1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ACE2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AFT2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ASF1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ASH1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CIN5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CST6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CYC8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>GCN4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GCR2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>GLN3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>HAP4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>HMO1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>HSF1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>MCM1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>MGA2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>MSN2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>MSN4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>RDS3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>SFP1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>STB5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>SWI4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>SWI5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>TEC1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>YHP1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>YOX1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>ZAP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>optimized_threshold_b!$G$2:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.538999217906269</c:v>
@@ -3266,7 +4577,7 @@
                   <c:v>-0.942389874285729</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22779550926859</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-0.447653587218826</c:v>
@@ -3296,7 +4607,7 @@
                   <c:v>-2.744608001249048</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.130661697450904</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3311,11 +4622,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2078805544"/>
-        <c:axId val="-2078793192"/>
+        <c:axId val="-2076756168"/>
+        <c:axId val="-2076703944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2078805544"/>
+        <c:axId val="-2076756168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3324,7 +4635,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2078793192"/>
+        <c:crossAx val="-2076703944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3332,7 +4643,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2078793192"/>
+        <c:axId val="-2076703944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3343,7 +4654,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2078805544"/>
+        <c:crossAx val="-2076756168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3359,7 +4670,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4169,11 +5480,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2078824632"/>
-        <c:axId val="-2078815496"/>
+        <c:axId val="-2039577016"/>
+        <c:axId val="-2039573880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2078824632"/>
+        <c:axId val="-2039577016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4182,7 +5493,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2078815496"/>
+        <c:crossAx val="-2039573880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4190,7 +5501,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2078815496"/>
+        <c:axId val="-2039573880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4201,7 +5512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2078824632"/>
+        <c:crossAx val="-2039577016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4230,10 +5541,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -4249,7 +5560,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>mse_comparison_dgln3!$B$1</c:f>
+              <c:f>mse_comparison_dcin5!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4261,44 +5572,44 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>mse_comparison_dgln3!$A$2:$A$15</c:f>
+              <c:f>mse_comparison_dcin5!$A$3:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>CIN5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CYC8</c:v>
+                  <c:v>GCR2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>GCR2</c:v>
+                  <c:v>GLN3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GLN3</c:v>
+                  <c:v>HAP4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>HAP4</c:v>
+                  <c:v>HMO1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>HMO1</c:v>
+                  <c:v>MGA2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>MSN2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>MSN4</c:v>
+                  <c:v>RDS3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>SFP1</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>STB5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>SWI4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>SWI5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>TEC1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>YHP1</c:v>
@@ -4311,51 +5622,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mse_comparison_dgln3!$B$2:$B$15</c:f>
+              <c:f>mse_comparison_dcin5!$B$3:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.731960958388463</c:v>
+                  <c:v>0.722796301432969</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.284415475857306</c:v>
+                  <c:v>0.471652365539266</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.453426379646552</c:v>
+                  <c:v>0.501083326232173</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.460894806100791</c:v>
+                  <c:v>2.127443807784427</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.20587352085468</c:v>
+                  <c:v>0.64500107184359</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.644759547547602</c:v>
+                  <c:v>0.481662378835605</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.437749982052578</c:v>
+                  <c:v>0.528876493871981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.501373092333854</c:v>
+                  <c:v>0.23004290427067</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.984877772421948</c:v>
+                  <c:v>0.988962937396496</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.327208936000374</c:v>
+                  <c:v>1.869963965357812</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.40843235903427</c:v>
+                  <c:v>0.262067785115692</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.398389559542101</c:v>
+                  <c:v>0.460644501686291</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.755356910612802</c:v>
+                  <c:v>0.88318268939703</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.423090706136972</c:v>
+                  <c:v>0.430641413252234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4366,7 +5677,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>mse_comparison_dgln3!$C$1</c:f>
+              <c:f>mse_comparison_dcin5!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4378,44 +5689,44 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>mse_comparison_dgln3!$A$2:$A$15</c:f>
+              <c:f>mse_comparison_dcin5!$A$3:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>CIN5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CYC8</c:v>
+                  <c:v>GCR2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>GCR2</c:v>
+                  <c:v>GLN3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GLN3</c:v>
+                  <c:v>HAP4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>HAP4</c:v>
+                  <c:v>HMO1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>HMO1</c:v>
+                  <c:v>MGA2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>MSN2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>MSN4</c:v>
+                  <c:v>RDS3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>SFP1</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>STB5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>SWI4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>SWI5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>TEC1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>YHP1</c:v>
@@ -4428,7 +5739,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mse_comparison_dgln3!$C$2:$C$15</c:f>
+              <c:f>mse_comparison_dcin5!$C$3:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -4436,43 +5747,43 @@
                   <c:v>0.1449642125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.118716670180097</c:v>
+                  <c:v>0.8437907732622</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.815387641050365</c:v>
+                  <c:v>0.27793107733272</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.210300854856724</c:v>
+                  <c:v>1.171059174722969</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.178607763484279</c:v>
+                  <c:v>0.651958990905892</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.669950005586543</c:v>
+                  <c:v>0.143179050891051</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43849311791252</c:v>
+                  <c:v>0.33402687680756</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.627787436154725</c:v>
+                  <c:v>0.482021233727974</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.261931615758212</c:v>
+                  <c:v>0.263505708328233</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.660526582008692</c:v>
+                  <c:v>0.882053881820877</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.224445151480495</c:v>
+                  <c:v>0.791715274610002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.481003854527171</c:v>
+                  <c:v>0.267404891842492</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.627217208101269</c:v>
+                  <c:v>0.662672466144309</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.796891190360022</c:v>
+                  <c:v>0.757811874505138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4483,7 +5794,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>mse_comparison_dgln3!$D$1</c:f>
+              <c:f>mse_comparison_dcin5!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4495,44 +5806,44 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>mse_comparison_dgln3!$A$2:$A$15</c:f>
+              <c:f>mse_comparison_dcin5!$A$3:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>CIN5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CYC8</c:v>
+                  <c:v>GCR2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>GCR2</c:v>
+                  <c:v>GLN3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GLN3</c:v>
+                  <c:v>HAP4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>HAP4</c:v>
+                  <c:v>HMO1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>HMO1</c:v>
+                  <c:v>MGA2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>MSN2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>MSN4</c:v>
+                  <c:v>RDS3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>SFP1</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>STB5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>SWI4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>SWI5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>TEC1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>YHP1</c:v>
@@ -4545,51 +5856,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mse_comparison_dgln3!$D$2:$D$15</c:f>
+              <c:f>mse_comparison_dcin5!$D$3:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.819956048001238</c:v>
+                  <c:v>0.868803248792668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.242482024706724</c:v>
+                  <c:v>0.786890430110147</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.798466470497879</c:v>
+                  <c:v>0.353261053333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.353261053333333</c:v>
+                  <c:v>1.522384663672216</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.290582624251888</c:v>
+                  <c:v>0.305352427230384</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.302784759823533</c:v>
+                  <c:v>0.130605750133767</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.767889766675609</c:v>
+                  <c:v>0.845376213993732</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.004160463261056</c:v>
+                  <c:v>1.106254952877855</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.959760886885053</c:v>
+                  <c:v>0.9653958908835</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.488121496222999</c:v>
+                  <c:v>0.349403875122439</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.270156231397258</c:v>
+                  <c:v>0.413856534852239</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.582302806152069</c:v>
+                  <c:v>0.275315809185295</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.979742493737283</c:v>
+                  <c:v>0.804769896080673</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.385561989706684</c:v>
+                  <c:v>1.353228209769899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4600,7 +5911,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>mse_comparison_dgln3!$E$1</c:f>
+              <c:f>mse_comparison_dcin5!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4612,44 +5923,44 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>mse_comparison_dgln3!$A$2:$A$15</c:f>
+              <c:f>mse_comparison_dcin5!$A$3:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>CIN5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CYC8</c:v>
+                  <c:v>GCR2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>GCR2</c:v>
+                  <c:v>GLN3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GLN3</c:v>
+                  <c:v>HAP4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>HAP4</c:v>
+                  <c:v>HMO1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>HMO1</c:v>
+                  <c:v>MGA2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>MSN2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>MSN4</c:v>
+                  <c:v>RDS3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>SFP1</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>STB5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>SWI4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>SWI5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>TEC1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>YHP1</c:v>
@@ -4662,51 +5973,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mse_comparison_dgln3!$E$2:$E$15</c:f>
+              <c:f>mse_comparison_dcin5!$E$3:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.07143365656026</c:v>
+                  <c:v>1.06705691787989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.423771073303837</c:v>
+                  <c:v>0.955850614091442</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.994295382096236</c:v>
+                  <c:v>0.190995615343442</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.190551562559006</c:v>
+                  <c:v>0.4916199175</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4916199175</c:v>
+                  <c:v>2.78441041456627</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.775232182267007</c:v>
+                  <c:v>0.205377433872493</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.226371274006122</c:v>
+                  <c:v>0.24388366415242</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.848320989510672</c:v>
+                  <c:v>0.266736258453233</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.184237516424738</c:v>
+                  <c:v>0.183628527401954</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.179358517902225</c:v>
+                  <c:v>0.178039546563152</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.475343309589175</c:v>
+                  <c:v>0.263824911696646</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.058525576497411</c:v>
+                  <c:v>0.486440855330612</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.263091540893461</c:v>
+                  <c:v>0.45159162324665</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.777951024321323</c:v>
+                  <c:v>0.801192946652702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4717,7 +6028,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>mse_comparison_dgln3!$F$1</c:f>
+              <c:f>mse_comparison_dcin5!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4729,44 +6040,44 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>mse_comparison_dgln3!$A$2:$A$15</c:f>
+              <c:f>mse_comparison_dcin5!$A$3:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>CIN5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>CYC8</c:v>
+                  <c:v>GCR2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>GCR2</c:v>
+                  <c:v>GLN3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GLN3</c:v>
+                  <c:v>HAP4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>HAP4</c:v>
+                  <c:v>HMO1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>HMO1</c:v>
+                  <c:v>MGA2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>MSN2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>MSN4</c:v>
+                  <c:v>RDS3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>SFP1</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>STB5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>SWI4</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>SWI5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>TEC1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>YHP1</c:v>
@@ -4779,51 +6090,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mse_comparison_dgln3!$F$2:$F$15</c:f>
+              <c:f>mse_comparison_dcin5!$F$3:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.744304454939067</c:v>
+                  <c:v>0.797075709458288</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.150464604736851</c:v>
+                  <c:v>0.479130238299297</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.469256004419272</c:v>
+                  <c:v>0.28476554166879</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21552022493394</c:v>
+                  <c:v>1.421461527614763</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.392167801294041</c:v>
+                  <c:v>0.593595616666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.593595616666667</c:v>
+                  <c:v>0.295700559726016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.374964266441711</c:v>
+                  <c:v>0.444605025134897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.711643614984691</c:v>
+                  <c:v>1.835185132381002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.180800676062848</c:v>
+                  <c:v>1.161156936772133</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.334659802024099</c:v>
+                  <c:v>0.53753662840439</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.242942110366263</c:v>
+                  <c:v>0.255804481827353</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.939244391500833</c:v>
+                  <c:v>0.27140737279938</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.28948651797476</c:v>
+                  <c:v>0.360283645617838</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.656751561776891</c:v>
+                  <c:v>0.661193185799969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4838,11 +6149,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2078863384"/>
-        <c:axId val="-2078860328"/>
+        <c:axId val="-2077533912"/>
+        <c:axId val="-2077531176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2078863384"/>
+        <c:axId val="-2077533912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4851,7 +6162,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2078860328"/>
+        <c:crossAx val="-2077531176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4859,7 +6170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2078860328"/>
+        <c:axId val="-2077531176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4870,7 +6181,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2078863384"/>
+        <c:crossAx val="-2077533912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4886,7 +6197,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4899,10 +6210,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -4918,7 +6229,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>mse_comparison_dhap4!$B$1</c:f>
+              <c:f>mse_comparison_dcin5!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4930,52 +6241,58 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>mse_comparison_dhap4!$A$2:$A$16</c:f>
+              <c:f>mse_comparison_dcin5!$H$3:$H$19</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>ACE2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ASH1</c:v>
+                  <c:v>CIN5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CIN5</c:v>
+                  <c:v>GCR2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GCR2</c:v>
+                  <c:v>GLN3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GLN3</c:v>
+                  <c:v>HAP4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>HAP4</c:v>
+                  <c:v>HMO1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>HMO1</c:v>
+                  <c:v>MCM1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>MGA2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>MSN2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>RDS3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>SFP1</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>STB5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>SWI4</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>SWI5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>YHP1</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>YOX1</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>ZAP1</c:v>
                 </c:pt>
               </c:strCache>
@@ -4983,54 +6300,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mse_comparison_dhap4!$B$2:$B$16</c:f>
+              <c:f>mse_comparison_dcin5!$I$3:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.414400399532629</c:v>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.411320538043566</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.253694692201024</c:v>
+                  <c:v>0.845771701780911</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82940629613405</c:v>
+                  <c:v>0.501992303918619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.511987868643105</c:v>
+                  <c:v>0.477325188324043</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.474377785597872</c:v>
+                  <c:v>2.101884284529554</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.150261498789201</c:v>
+                  <c:v>0.64028441694525</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6177767771785</c:v>
+                  <c:v>1.232337375273702</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.463377933260288</c:v>
+                  <c:v>0.532454011461283</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.982476151362419</c:v>
+                  <c:v>0.541588997349779</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.796514074114253</c:v>
+                  <c:v>0.23177770455563</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.30902087171182</c:v>
+                  <c:v>0.994041334161549</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.403768967146743</c:v>
+                  <c:v>1.85394626426909</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.734309595074554</c:v>
+                  <c:v>0.282293594424155</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.404887311891409</c:v>
+                  <c:v>0.451991321518238</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.303852234436616</c:v>
+                  <c:v>0.723444414982261</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.406136827120828</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.059781692109081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5041,7 +6364,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>mse_comparison_dhap4!$C$1</c:f>
+              <c:f>mse_comparison_dcin5!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5053,52 +6376,58 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>mse_comparison_dhap4!$A$2:$A$16</c:f>
+              <c:f>mse_comparison_dcin5!$H$3:$H$19</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>ACE2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ASH1</c:v>
+                  <c:v>CIN5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CIN5</c:v>
+                  <c:v>GCR2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GCR2</c:v>
+                  <c:v>GLN3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GLN3</c:v>
+                  <c:v>HAP4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>HAP4</c:v>
+                  <c:v>HMO1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>HMO1</c:v>
+                  <c:v>MCM1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>MGA2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>MSN2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>RDS3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>SFP1</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>STB5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>SWI4</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>SWI5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>YHP1</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>YOX1</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>ZAP1</c:v>
                 </c:pt>
               </c:strCache>
@@ -5106,54 +6435,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mse_comparison_dhap4!$C$2:$C$16</c:f>
+              <c:f>mse_comparison_dcin5!$J$3:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.0961255599300152</c:v>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.0992847214059903</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.301093786137102</c:v>
+                  <c:v>0.1389393325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1449642125</c:v>
+                  <c:v>0.889269757742526</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.903868332873391</c:v>
+                  <c:v>0.198700951721269</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.201401948380056</c:v>
+                  <c:v>1.183647826891488</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.161012351798848</c:v>
+                  <c:v>0.625782206554727</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.684024350074492</c:v>
+                  <c:v>0.817620085406046</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.384749785048605</c:v>
+                  <c:v>0.129828579881061</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.30570869561808</c:v>
+                  <c:v>0.338170556478448</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.87599310627345</c:v>
+                  <c:v>0.481540318051162</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.69860099663642</c:v>
+                  <c:v>0.260127401014454</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.226098007087176</c:v>
+                  <c:v>0.873414290980528</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.62377818807323</c:v>
+                  <c:v>0.661970311135113</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.733909472514184</c:v>
+                  <c:v>0.227080644692146</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.673485303850372</c:v>
+                  <c:v>0.662041868468755</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.741316339848555</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.663282284912506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5164,7 +6499,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>mse_comparison_dhap4!$D$1</c:f>
+              <c:f>mse_comparison_dcin5!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5176,52 +6511,58 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>mse_comparison_dhap4!$A$2:$A$16</c:f>
+              <c:f>mse_comparison_dcin5!$H$3:$H$19</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>ACE2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ASH1</c:v>
+                  <c:v>CIN5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CIN5</c:v>
+                  <c:v>GCR2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GCR2</c:v>
+                  <c:v>GLN3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GLN3</c:v>
+                  <c:v>HAP4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>HAP4</c:v>
+                  <c:v>HMO1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>HMO1</c:v>
+                  <c:v>MCM1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>MGA2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>MSN2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>RDS3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>SFP1</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>STB5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>SWI4</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>SWI5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>YHP1</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>YOX1</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>ZAP1</c:v>
                 </c:pt>
               </c:strCache>
@@ -5229,54 +6570,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mse_comparison_dhap4!$D$2:$D$16</c:f>
+              <c:f>mse_comparison_dcin5!$K$3:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1.306209888931987</c:v>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1.261948602936334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.634373654282639</c:v>
+                  <c:v>0.878713872802487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.867839258304965</c:v>
+                  <c:v>0.772752471836118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.769190419944849</c:v>
+                  <c:v>0.353261053333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.353261053333333</c:v>
+                  <c:v>1.425636687550394</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.344340022261781</c:v>
+                  <c:v>0.308122272768119</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.296710833170619</c:v>
+                  <c:v>4.128760338869433</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.769294992672935</c:v>
+                  <c:v>0.132214349190385</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.970550181308868</c:v>
+                  <c:v>0.86498101849668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.388974090594714</c:v>
+                  <c:v>1.072482715368971</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.469652166420397</c:v>
+                  <c:v>0.916542210133224</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.280230241229235</c:v>
+                  <c:v>0.353959764302183</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.042423197331166</c:v>
+                  <c:v>0.444957970170115</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.48897677276851</c:v>
+                  <c:v>0.274295430367903</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.28016825393683</c:v>
+                  <c:v>0.950572388803823</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.491243925144466</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.300966547520272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5287,7 +6634,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>mse_comparison_dhap4!$E$1</c:f>
+              <c:f>mse_comparison_dcin5!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5299,52 +6646,58 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>mse_comparison_dhap4!$A$2:$A$16</c:f>
+              <c:f>mse_comparison_dcin5!$H$3:$H$19</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>ACE2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ASH1</c:v>
+                  <c:v>CIN5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CIN5</c:v>
+                  <c:v>GCR2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GCR2</c:v>
+                  <c:v>GLN3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GLN3</c:v>
+                  <c:v>HAP4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>HAP4</c:v>
+                  <c:v>HMO1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>HMO1</c:v>
+                  <c:v>MCM1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>MGA2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>MSN2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>RDS3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>SFP1</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>STB5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>SWI4</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>SWI5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>YHP1</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>YOX1</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>ZAP1</c:v>
                 </c:pt>
               </c:strCache>
@@ -5352,54 +6705,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mse_comparison_dhap4!$E$2:$E$16</c:f>
+              <c:f>mse_comparison_dcin5!$L$3:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.145929035248153</c:v>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.197798678310261</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.315963747820022</c:v>
+                  <c:v>0.919000176237511</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.09454084131527</c:v>
+                  <c:v>0.858387193803839</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.885788340243391</c:v>
+                  <c:v>0.192362687626674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18676177465043</c:v>
+                  <c:v>0.533208381666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4916199175</c:v>
+                  <c:v>2.795444445899142</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.827609851031374</c:v>
+                  <c:v>1.241842092099991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.206939444018557</c:v>
+                  <c:v>0.186301445428574</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.178197584178885</c:v>
+                  <c:v>0.247234965269412</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.174177731641512</c:v>
+                  <c:v>0.215877930707689</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.191125178210703</c:v>
+                  <c:v>0.219148085771887</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.464225396947672</c:v>
+                  <c:v>0.15193010519539</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.253370034254909</c:v>
+                  <c:v>0.157652062429708</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.723838647971399</c:v>
+                  <c:v>0.577074884810262</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.128715462856991</c:v>
+                  <c:v>0.295675175881401</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.710567333003024</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.786470832838076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5410,7 +6769,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>mse_comparison_dhap4!$F$1</c:f>
+              <c:f>mse_comparison_dcin5!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5422,52 +6781,58 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>mse_comparison_dhap4!$A$2:$A$16</c:f>
+              <c:f>mse_comparison_dcin5!$H$3:$H$19</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>ACE2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ASH1</c:v>
+                  <c:v>CIN5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CIN5</c:v>
+                  <c:v>GCR2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GCR2</c:v>
+                  <c:v>GLN3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GLN3</c:v>
+                  <c:v>HAP4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>HAP4</c:v>
+                  <c:v>HMO1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>HMO1</c:v>
+                  <c:v>MCM1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>MGA2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>MSN2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>RDS3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>SFP1</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>STB5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>SWI4</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>SWI5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>YHP1</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>YOX1</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>ZAP1</c:v>
                 </c:pt>
               </c:strCache>
@@ -5475,54 +6840,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mse_comparison_dhap4!$F$2:$F$16</c:f>
+              <c:f>mse_comparison_dcin5!$M$3:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.21060423929162</c:v>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.199846144472241</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1926941732394</c:v>
+                  <c:v>0.759404221513909</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.769613126392202</c:v>
+                  <c:v>0.497045171344652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.503263014502472</c:v>
+                  <c:v>0.249779442160381</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.237003528517225</c:v>
+                  <c:v>1.485298494544057</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.421204638745012</c:v>
+                  <c:v>0.593595616666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.593595616666667</c:v>
+                  <c:v>3.12607711412136</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.448965607631339</c:v>
+                  <c:v>0.298201977764395</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.185892053198647</c:v>
+                  <c:v>0.477302943379906</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.533377124036951</c:v>
+                  <c:v>1.790149960974662</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.319990162695856</c:v>
+                  <c:v>1.080877286301819</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.241360949579765</c:v>
+                  <c:v>0.529463493612634</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.287058300813078</c:v>
+                  <c:v>0.248228445582492</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.660915213847568</c:v>
+                  <c:v>0.23381860952912</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.460814343713048</c:v>
+                  <c:v>0.301836724650599</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.664446494403275</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.478156570855901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5533,7 +6904,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>mse_comparison_dhap4!$G$1</c:f>
+              <c:f>mse_comparison_dcin5!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5545,52 +6916,58 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>mse_comparison_dhap4!$A$2:$A$16</c:f>
+              <c:f>mse_comparison_dcin5!$H$3:$H$19</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>ACE2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ASH1</c:v>
+                  <c:v>CIN5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CIN5</c:v>
+                  <c:v>GCR2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GCR2</c:v>
+                  <c:v>GLN3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GLN3</c:v>
+                  <c:v>HAP4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>HAP4</c:v>
+                  <c:v>HMO1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>HMO1</c:v>
+                  <c:v>MCM1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>MGA2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>MSN2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>RDS3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>SFP1</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>STB5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>SWI4</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>SWI5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>YHP1</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>YOX1</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>ZAP1</c:v>
                 </c:pt>
               </c:strCache>
@@ -5598,53 +6975,59 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mse_comparison_dhap4!$G$2:$G$16</c:f>
+              <c:f>mse_comparison_dcin5!$N$3:$N$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.846957405967136</c:v>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.850252951034045</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.195015409450161</c:v>
+                  <c:v>0.654608305705414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.677597045419316</c:v>
+                  <c:v>0.232852761733475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22871937876435</c:v>
+                  <c:v>0.162253066039771</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17217209917494</c:v>
+                  <c:v>0.598531288176671</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.559986745581597</c:v>
+                  <c:v>0.584332624283594</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.523988564097916</c:v>
+                  <c:v>3.739998244700803</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.249989030637614</c:v>
+                  <c:v>0.383648279628723</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.269505230396537</c:v>
+                  <c:v>0.292957299957133</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.347703080334739</c:v>
+                  <c:v>0.914959528665258</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.24630355768118</c:v>
+                  <c:v>0.331897419989214</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.314817546706148</c:v>
+                  <c:v>1.333338712602204</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.527302882635673</c:v>
+                  <c:v>0.257173668845343</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.503979141059665</c:v>
+                  <c:v>0.286280148823619</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0.480908408788092</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4958165385531</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>3.159033750833333</c:v>
                 </c:pt>
               </c:numCache>
@@ -5660,11 +7043,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2109130456"/>
-        <c:axId val="-2104868360"/>
+        <c:axId val="-2079203800"/>
+        <c:axId val="-2079201240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2109130456"/>
+        <c:axId val="-2079203800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5673,7 +7056,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2104868360"/>
+        <c:crossAx val="-2079201240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5681,7 +7064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2104868360"/>
+        <c:axId val="-2079201240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5692,7 +7075,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2109130456"/>
+        <c:crossAx val="-2079203800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5708,7 +7091,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5740,7 +7123,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>mse_comparison_dzap1!$B$1</c:f>
+              <c:f>mse_comparison_dgln3!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5752,113 +7135,101 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>mse_comparison_dzap1!$A$2:$A$17</c:f>
+              <c:f>mse_comparison_dgln3!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>ABF1</c:v>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>CIN5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ACE2</c:v>
+                  <c:v>CYC8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CIN5</c:v>
+                  <c:v>GCR2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CST6</c:v>
+                  <c:v>GLN3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GCN4</c:v>
+                  <c:v>HAP4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>GCR2</c:v>
+                  <c:v>HMO1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>GLN3</c:v>
+                  <c:v>MSN2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>HAP4</c:v>
+                  <c:v>MSN4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>HMO1</c:v>
+                  <c:v>SFP1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>HSF1</c:v>
+                  <c:v>SWI4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>MCM1</c:v>
+                  <c:v>SWI5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>MGA2</c:v>
+                  <c:v>TEC1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>MSN2</c:v>
+                  <c:v>YHP1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MSN4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>SWI4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>ZAP1</c:v>
+                  <c:v>YOX1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mse_comparison_dzap1!$B$2:$B$17</c:f>
+              <c:f>mse_comparison_dgln3!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.677296260252678</c:v>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.731960958388463</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.411695761018534</c:v>
+                  <c:v>0.284415475857306</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.825168399097546</c:v>
+                  <c:v>0.453426379646552</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.924132508671987</c:v>
+                  <c:v>0.460894806100791</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.789845693491056</c:v>
+                  <c:v>2.20587352085468</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.481535545864612</c:v>
+                  <c:v>0.644759547547602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.461530525493838</c:v>
+                  <c:v>0.437749982052578</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.097369262104057</c:v>
+                  <c:v>1.501373092333854</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.619588958248421</c:v>
+                  <c:v>0.984877772421948</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.772691666476502</c:v>
+                  <c:v>0.327208936000374</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.227107904397248</c:v>
+                  <c:v>0.40843235903427</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.472168707679897</c:v>
+                  <c:v>2.398389559542101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.50056466420533</c:v>
+                  <c:v>0.755356910612802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.501847301789383</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.307169015826753</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.28802223459378</c:v>
+                  <c:v>0.423090706136972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5869,7 +7240,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>mse_comparison_dzap1!$C$1</c:f>
+              <c:f>mse_comparison_dgln3!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5881,113 +7252,101 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>mse_comparison_dzap1!$A$2:$A$17</c:f>
+              <c:f>mse_comparison_dgln3!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>ABF1</c:v>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>CIN5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ACE2</c:v>
+                  <c:v>CYC8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CIN5</c:v>
+                  <c:v>GCR2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CST6</c:v>
+                  <c:v>GLN3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GCN4</c:v>
+                  <c:v>HAP4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>GCR2</c:v>
+                  <c:v>HMO1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>GLN3</c:v>
+                  <c:v>MSN2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>HAP4</c:v>
+                  <c:v>MSN4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>HMO1</c:v>
+                  <c:v>SFP1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>HSF1</c:v>
+                  <c:v>SWI4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>MCM1</c:v>
+                  <c:v>SWI5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>MGA2</c:v>
+                  <c:v>TEC1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>MSN2</c:v>
+                  <c:v>YHP1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MSN4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>SWI4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>ZAP1</c:v>
+                  <c:v>YOX1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mse_comparison_dzap1!$C$2:$C$17</c:f>
+              <c:f>mse_comparison_dgln3!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.681963725833707</c:v>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.1449642125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0907555537039113</c:v>
+                  <c:v>0.118716670180097</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1449642125</c:v>
+                  <c:v>0.815387641050365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.853027537603778</c:v>
+                  <c:v>0.210300854856724</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.44716577940912</c:v>
+                  <c:v>1.178607763484279</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.858822615226308</c:v>
+                  <c:v>0.669950005586543</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.180955379143734</c:v>
+                  <c:v>0.43849311791252</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.166686961574593</c:v>
+                  <c:v>0.627787436154725</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.662587804117561</c:v>
+                  <c:v>0.261931615758212</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.412541569906085</c:v>
+                  <c:v>0.660526582008692</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.81534413430145</c:v>
+                  <c:v>0.224445151480495</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.14147158640062</c:v>
+                  <c:v>1.481003854527171</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34791371494527</c:v>
+                  <c:v>0.627217208101269</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.68067030320582</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.66872651468377</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.669732754303528</c:v>
+                  <c:v>0.796891190360022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5998,7 +7357,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>mse_comparison_dzap1!$D$1</c:f>
+              <c:f>mse_comparison_dgln3!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6010,113 +7369,101 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>mse_comparison_dzap1!$A$2:$A$17</c:f>
+              <c:f>mse_comparison_dgln3!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>ABF1</c:v>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>CIN5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ACE2</c:v>
+                  <c:v>CYC8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CIN5</c:v>
+                  <c:v>GCR2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CST6</c:v>
+                  <c:v>GLN3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GCN4</c:v>
+                  <c:v>HAP4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>GCR2</c:v>
+                  <c:v>HMO1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>GLN3</c:v>
+                  <c:v>MSN2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>HAP4</c:v>
+                  <c:v>MSN4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>HMO1</c:v>
+                  <c:v>SFP1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>HSF1</c:v>
+                  <c:v>SWI4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>MCM1</c:v>
+                  <c:v>SWI5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>MGA2</c:v>
+                  <c:v>TEC1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>MSN2</c:v>
+                  <c:v>YHP1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MSN4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>SWI4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>ZAP1</c:v>
+                  <c:v>YOX1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mse_comparison_dzap1!$D$2:$D$17</c:f>
+              <c:f>mse_comparison_dgln3!$D$2:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.879164719921589</c:v>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.819956048001238</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.266213995721334</c:v>
+                  <c:v>0.242482024706724</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.865938475688404</c:v>
+                  <c:v>0.798466470497879</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.641930994999619</c:v>
+                  <c:v>0.353261053333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.23631808857996</c:v>
+                  <c:v>1.290582624251888</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.781667038383538</c:v>
+                  <c:v>0.302784759823533</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.353261053333333</c:v>
+                  <c:v>0.767889766675609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.435137772208437</c:v>
+                  <c:v>1.004160463261056</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.297972616730894</c:v>
+                  <c:v>0.959760886885053</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.653458100331852</c:v>
+                  <c:v>0.488121496222999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.122364888096762</c:v>
+                  <c:v>0.270156231397258</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.167203811090681</c:v>
+                  <c:v>0.582302806152069</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.819992346014254</c:v>
+                  <c:v>0.979742493737283</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.184182214228634</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.46271144449365</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.287512575411903</c:v>
+                  <c:v>1.385561989706684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6127,7 +7474,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>mse_comparison_dzap1!$E$1</c:f>
+              <c:f>mse_comparison_dgln3!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6139,113 +7486,101 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>mse_comparison_dzap1!$A$2:$A$17</c:f>
+              <c:f>mse_comparison_dgln3!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>ABF1</c:v>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>CIN5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ACE2</c:v>
+                  <c:v>CYC8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CIN5</c:v>
+                  <c:v>GCR2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CST6</c:v>
+                  <c:v>GLN3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GCN4</c:v>
+                  <c:v>HAP4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>GCR2</c:v>
+                  <c:v>HMO1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>GLN3</c:v>
+                  <c:v>MSN2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>HAP4</c:v>
+                  <c:v>MSN4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>HMO1</c:v>
+                  <c:v>SFP1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>HSF1</c:v>
+                  <c:v>SWI4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>MCM1</c:v>
+                  <c:v>SWI5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>MGA2</c:v>
+                  <c:v>TEC1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>MSN2</c:v>
+                  <c:v>YHP1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MSN4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>SWI4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>ZAP1</c:v>
+                  <c:v>YOX1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mse_comparison_dzap1!$E$2:$E$17</c:f>
+              <c:f>mse_comparison_dgln3!$E$2:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.530259479544293</c:v>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.07143365656026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.162142488199274</c:v>
+                  <c:v>0.423771073303837</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.079355603124617</c:v>
+                  <c:v>0.994295382096236</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.295136898887588</c:v>
+                  <c:v>0.190551562559006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.515205159141764</c:v>
+                  <c:v>0.4916199175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.937002107510609</c:v>
+                  <c:v>2.775232182267007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.201090788352144</c:v>
+                  <c:v>0.226371274006122</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4916199175</c:v>
+                  <c:v>0.848320989510672</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.851785308564169</c:v>
+                  <c:v>0.184237516424738</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.320335482856968</c:v>
+                  <c:v>0.179358517902225</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.309737730459779</c:v>
+                  <c:v>0.475343309589175</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.180026638286015</c:v>
+                  <c:v>1.058525576497411</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.228724658534088</c:v>
+                  <c:v>0.263091540893461</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.768866101692711</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.198125873865884</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.136559245466728</c:v>
+                  <c:v>0.777951024321323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6256,7 +7591,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>mse_comparison_dzap1!$F$1</c:f>
+              <c:f>mse_comparison_dgln3!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6268,242 +7603,101 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>mse_comparison_dzap1!$A$2:$A$17</c:f>
+              <c:f>mse_comparison_dgln3!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>ABF1</c:v>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>CIN5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ACE2</c:v>
+                  <c:v>CYC8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>CIN5</c:v>
+                  <c:v>GCR2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CST6</c:v>
+                  <c:v>GLN3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GCN4</c:v>
+                  <c:v>HAP4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>GCR2</c:v>
+                  <c:v>HMO1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>GLN3</c:v>
+                  <c:v>MSN2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>HAP4</c:v>
+                  <c:v>MSN4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>HMO1</c:v>
+                  <c:v>SFP1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>HSF1</c:v>
+                  <c:v>SWI4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>MCM1</c:v>
+                  <c:v>SWI5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>MGA2</c:v>
+                  <c:v>TEC1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>MSN2</c:v>
+                  <c:v>YHP1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>MSN4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>SWI4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>ZAP1</c:v>
+                  <c:v>YOX1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>mse_comparison_dzap1!$F$2:$F$17</c:f>
+              <c:f>mse_comparison_dgln3!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1.157130651517268</c:v>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.744304454939067</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.200843164206838</c:v>
+                  <c:v>0.150464604736851</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.765647040682913</c:v>
+                  <c:v>0.469256004419272</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.355075550107199</c:v>
+                  <c:v>0.21552022493394</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.757208307184078</c:v>
+                  <c:v>1.392167801294041</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.484788244450768</c:v>
+                  <c:v>0.593595616666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23432433640771</c:v>
+                  <c:v>0.374964266441711</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.455675302302679</c:v>
+                  <c:v>0.711643614984691</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.593595616666667</c:v>
+                  <c:v>1.180800676062848</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.615352166621774</c:v>
+                  <c:v>0.334659802024099</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.123661264871023</c:v>
+                  <c:v>0.242942110366263</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.256414088876643</c:v>
+                  <c:v>0.939244391500833</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.421455047529545</c:v>
+                  <c:v>0.28948651797476</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.694378066560403</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.2422653024008</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.466915656436041</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>mse_comparison_dzap1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ZAP1 MSE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>mse_comparison_dzap1!$A$2:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>ABF1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ACE2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CIN5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CST6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>GCN4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>GCR2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>GLN3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>HAP4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>HMO1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>HSF1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>MCM1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>MGA2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>MSN2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>MSN4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>SWI4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>ZAP1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>mse_comparison_dzap1!$G$2:$G$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1.671677386717563</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.850692357211561</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.676750762095619</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.343186670861099</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.299827948372343</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.243002150454706</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.175328688338628</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.660637228124147</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.522670818807562</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.320181954098266</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.730786955088503</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.308102653385321</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.268427515937443</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.385546590532796</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.253047714599638</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.159033750833333</c:v>
+                  <c:v>0.656751561776891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6518,11 +7712,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2079094376"/>
-        <c:axId val="-2079089368"/>
+        <c:axId val="-2101983832"/>
+        <c:axId val="-2075915368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2079094376"/>
+        <c:axId val="-2101983832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6531,7 +7725,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2079089368"/>
+        <c:crossAx val="-2075915368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6539,7 +7733,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2079089368"/>
+        <c:axId val="-2075915368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6550,7 +7744,829 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2079094376"/>
+        <c:crossAx val="-2101983832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mse_comparison_dhap4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WT MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>mse_comparison_dhap4!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ACE2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ASH1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CIN5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GCR2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GLN3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HAP4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HMO1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MSN2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SFP1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>STB5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SWI4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SWI5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>YHP1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>YOX1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ZAP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mse_comparison_dhap4!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.414400399532629</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.253694692201024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82940629613405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.511987868643105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.474377785597872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.150261498789201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6177767771785</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.463377933260288</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.982476151362419</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.796514074114253</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30902087171182</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.403768967146743</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.734309595074554</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.404887311891409</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.303852234436616</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mse_comparison_dhap4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CIN5 MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>mse_comparison_dhap4!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ACE2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ASH1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CIN5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GCR2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GLN3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HAP4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HMO1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MSN2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SFP1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>STB5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SWI4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SWI5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>YHP1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>YOX1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ZAP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mse_comparison_dhap4!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.0961255599300152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.301093786137102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1449642125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.903868332873391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.201401948380056</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.161012351798848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.684024350074492</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.384749785048605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30570869561808</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87599310627345</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69860099663642</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.226098007087176</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62377818807323</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.733909472514184</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.673485303850372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mse_comparison_dhap4!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GLN3 MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>mse_comparison_dhap4!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ACE2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ASH1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CIN5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GCR2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GLN3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HAP4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HMO1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MSN2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SFP1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>STB5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SWI4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SWI5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>YHP1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>YOX1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ZAP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mse_comparison_dhap4!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.306209888931987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.634373654282639</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.867839258304965</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.769190419944849</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.353261053333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.344340022261781</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.296710833170619</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.769294992672935</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.970550181308868</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.388974090594714</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.469652166420397</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.280230241229235</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.042423197331166</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.48897677276851</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.28016825393683</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mse_comparison_dhap4!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HAP4 MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>mse_comparison_dhap4!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ACE2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ASH1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CIN5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GCR2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GLN3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HAP4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HMO1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MSN2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SFP1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>STB5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SWI4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SWI5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>YHP1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>YOX1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ZAP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mse_comparison_dhap4!$E$2:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.145929035248153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.315963747820022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.09454084131527</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.885788340243391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18676177465043</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4916199175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.827609851031374</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.206939444018557</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.178197584178885</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.174177731641512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.191125178210703</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.464225396947672</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.253370034254909</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.723838647971399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.128715462856991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mse_comparison_dhap4!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HMO1 MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>mse_comparison_dhap4!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ACE2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ASH1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CIN5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GCR2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GLN3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HAP4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HMO1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MSN2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SFP1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>STB5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SWI4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SWI5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>YHP1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>YOX1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ZAP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mse_comparison_dhap4!$F$2:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.21060423929162</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1926941732394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.769613126392202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.503263014502472</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.237003528517225</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.421204638745012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.593595616666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.448965607631339</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.185892053198647</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.533377124036951</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.319990162695856</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.241360949579765</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.287058300813078</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.660915213847568</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.460814343713048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mse_comparison_dhap4!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZAP1 MSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>mse_comparison_dhap4!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>ACE2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ASH1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CIN5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GCR2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GLN3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HAP4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HMO1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MSN2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SFP1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>STB5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SWI4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SWI5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>YHP1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>YOX1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>ZAP1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mse_comparison_dhap4!$G$2:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.846957405967136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.195015409450161</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.677597045419316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22871937876435</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17217209917494</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.559986745581597</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.523988564097916</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.249989030637614</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.269505230396537</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.347703080334739</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24630355768118</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.314817546706148</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.527302882635673</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.503979141059665</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.159033750833333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2046454664"/>
+        <c:axId val="-2111919768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2046454664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2111919768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2111919768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2046454664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6576,20 +8592,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6606,20 +8622,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>112713</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:colOff>478366</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6642,19 +8658,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6671,20 +8687,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>93662</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6741,6 +8757,71 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -6772,7 +8853,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6807,7 +8888,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7129,10 +9210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -7140,7 +9221,7 @@
     <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -7148,44 +9229,50 @@
         <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4">
         <v>5.7591382252151602E-2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>5.756589019470186E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>0.13386077051995146</v>
       </c>
-      <c r="E3" s="1">
+      <c r="D3" s="1">
+        <v>0.22329528594739356</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.16323432499926988</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.23145434906630083</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -7193,7 +9280,7 @@
         <v>0.29000495831757078</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -7201,284 +9288,374 @@
         <v>0.15817971463889477</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>1.5298861943696069</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>2.0267702430394277</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4">
         <v>1.1528159878875472</v>
       </c>
-      <c r="D7" s="4">
+      <c r="C7" s="1">
+        <v>1.5791635793981724</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.84637459596616704</v>
+      </c>
+      <c r="E7" s="4">
         <v>1.2710036412433154</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>0.9511355519501179</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>1.9156809251889879</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>0.29166693111711317</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>0.16084584396078114</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4">
         <v>0.18121602900685585</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>4.560682304584536E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4">
+      <c r="C11" s="1">
+        <v>0.22527226631801617</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.23277681597458433</v>
+      </c>
+      <c r="E11" s="4">
         <v>0.22037037495467104</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>0.23511012771516712</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>0.2277955092685898</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4">
         <v>0.3601097594850155</v>
       </c>
-      <c r="D12" s="4">
+      <c r="C12" s="1">
+        <v>0.41736284258361694</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.28888759496266875</v>
+      </c>
+      <c r="E12" s="4">
         <v>0.28447758046636562</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>0.28784140104497197</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>1.3572035748040747</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4">
         <v>2.3447714372178523</v>
       </c>
-      <c r="D13" s="4">
+      <c r="C13" s="1">
+        <v>1.0796377108757704</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.2711031609271293</v>
+      </c>
+      <c r="E13" s="4">
         <v>1.2569258717132032</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>1.6725818440222211</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>1.7046201005100143</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="4">
         <v>0.48329066717021735</v>
       </c>
-      <c r="D14" s="4">
+      <c r="C14" s="1">
+        <v>0.51222056808063332</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.54589292261908751</v>
+      </c>
+      <c r="E14" s="4">
         <v>0.18292618613422346</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>0.23866431013598668</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>0.23899233341381584</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>0.10790896541949431</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="1">
+      <c r="D16" s="1">
+        <v>0.14425345439307805</v>
+      </c>
+      <c r="G16" s="1">
         <v>0.14293595507207629</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="1">
+      <c r="C17" s="1">
+        <v>0.27248047625776173</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.26740959803060221</v>
+      </c>
+      <c r="G17" s="1">
         <v>0.30759423527027474</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="4">
         <v>0.57385254198006319</v>
       </c>
-      <c r="D18" s="4">
+      <c r="C18" s="1">
+        <v>2.1829600017133837</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.6109107448332618</v>
+      </c>
+      <c r="E18" s="4">
         <v>0.52015651921259665</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>0.8824240577061403</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>1.3538832407580679</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <v>1.320347751917089</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>1.4053763683375113</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="C20" s="1">
+        <v>0.29582842416788552</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.19958006605816536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="4">
         <v>1.0066312765504999</v>
       </c>
-      <c r="D21" s="4">
+      <c r="C21" s="1">
+        <v>1.4100764540341661</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.58640787835642993</v>
+      </c>
+      <c r="E21" s="4">
         <v>1.1973293602179456</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>1.2093964255556602</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="1">
+      <c r="C22" s="1">
+        <v>0.60120437910191693</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.24710371307376561</v>
+      </c>
+      <c r="F22" s="1">
         <v>0.32038832328011063</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="4">
         <v>0.22781834436110557</v>
       </c>
-      <c r="D23" s="4">
+      <c r="C23" s="1">
+        <v>0.33547319766021105</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.27582016376437296</v>
+      </c>
+      <c r="E23" s="4">
         <v>0.28779839939802465</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>0.24117622274449829</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>0.21276403967125621</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="4">
+      <c r="C24" s="1">
+        <v>1.1399937530094733</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.81828204092532819</v>
+      </c>
+      <c r="E24" s="4">
         <v>2.3057772442596476</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>1.2497459694622715</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>1.5765336788671458</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="4">
         <v>0.15130237614051389</v>
       </c>
-      <c r="D26" s="4">
+      <c r="C26" s="1">
+        <v>1.882566711793038</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.74624755437672152</v>
+      </c>
+      <c r="E26" s="4">
         <v>0.53884152986947742</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>0.34107830277955481</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="4">
         <v>0.78559345347797105</v>
       </c>
-      <c r="D27" s="4">
+      <c r="C27" s="1">
+        <v>1.3668064690595783</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.1141249263073911</v>
+      </c>
+      <c r="E27" s="4">
         <v>0.79251191598987536</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>0.86462662584286076</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="4">
         <v>0.12653346989016581</v>
       </c>
-      <c r="E28" s="1">
+      <c r="D28" s="1">
+        <v>0.13219442533123518</v>
+      </c>
+      <c r="F28" s="1">
         <v>0.12981371615489459</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>0.13066169745090392</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="A29" s="3"/>
     </row>
     <row r="35" spans="1:5">
@@ -7830,10 +10007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -7841,7 +10018,7 @@
     <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -7849,340 +10026,443 @@
         <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>5.7591382252151602E-2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>5.756589019470186E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>0.26212402839708154</v>
       </c>
-      <c r="E3" s="1">
+      <c r="C3" s="4"/>
+      <c r="D3">
+        <v>1.4950117426897687</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.6002479054357498</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>1.538999217906269</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>4.5168564931748092</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>1.3581243044260709</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>0.76411388816063042</v>
       </c>
-      <c r="E6" s="1">
+      <c r="C6" s="4"/>
+      <c r="F6" s="1">
         <v>-1.7883837756758569</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" ht="14">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4">
         <v>2.6975637872373763</v>
       </c>
-      <c r="D7" s="1">
+      <c r="C7" s="6">
+        <v>-0.249977806</v>
+      </c>
+      <c r="D7">
+        <v>0.37520159023417909</v>
+      </c>
+      <c r="E7" s="1">
         <v>0.209399465600768</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>2.3689832320974893</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>-0.5369344146971744</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>-2.3546340515924104E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>0.95036344888317004</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4">
         <v>2.422825031475718</v>
       </c>
-      <c r="F10" s="1">
+      <c r="C10" s="4"/>
+      <c r="G10" s="1">
         <v>-0.94238987428572918</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7" ht="14">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1">
-        <v>0.22037037495467104</v>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0.23511012771516712</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0.2277955092685898</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4">
         <v>1.3441263322678942</v>
       </c>
-      <c r="D12" s="1">
+      <c r="C12">
+        <v>0.72197121872033931</v>
+      </c>
+      <c r="D12">
+        <v>0.5978462093076975</v>
+      </c>
+      <c r="E12" s="1">
         <v>1.4824077663028146</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>0.82055592354002826</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>-0.44765358721882581</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7" ht="14">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4">
         <v>-1.7451397466597762</v>
       </c>
-      <c r="D13" s="1">
+      <c r="C13">
+        <v>2.1781530858004321</v>
+      </c>
+      <c r="D13">
+        <v>3.1299524404847383</v>
+      </c>
+      <c r="E13" s="1">
         <v>0.61424595485786815</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>0.72661564552165336</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>0.17019996416505118</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7" ht="14">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="4">
         <v>1.3128831623982176</v>
       </c>
-      <c r="D14" s="1">
+      <c r="C14">
+        <v>1.732411842467356</v>
+      </c>
+      <c r="D14">
+        <v>1.8877303298114878</v>
+      </c>
+      <c r="E14" s="1">
         <v>0.87092237677865147</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>0.96802405317712525</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>0.38493684794066862</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>9.5031077990090237E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7" ht="14">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="1">
+      <c r="D16">
+        <v>0.20609275262043364</v>
+      </c>
+      <c r="G16" s="1">
         <v>0.2642792825791534</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7" ht="14">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="1">
+      <c r="C17">
+        <v>-2.5165498331795436E-2</v>
+      </c>
+      <c r="D17">
+        <v>-3.2657361311304714E-2</v>
+      </c>
+      <c r="G17" s="1">
         <v>-3.97087059584455E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7" ht="14">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="4">
         <v>0.89612965557754209</v>
       </c>
-      <c r="D18" s="1">
+      <c r="C18">
+        <v>-1.4075457478530951</v>
+      </c>
+      <c r="D18">
+        <v>-1.8024477685914946</v>
+      </c>
+      <c r="E18" s="1">
         <v>1.6614194061490752</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>4.7489241175100325</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>-0.64778281971241325</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>-1.3479775608470197E-2</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>1.7174586906160556</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7" ht="14">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="C20">
+        <v>1.0633597590339166</v>
+      </c>
+      <c r="D20">
+        <v>0.65934915438357899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="4">
         <v>1.2433807255932119</v>
       </c>
-      <c r="D21" s="1">
+      <c r="C21">
+        <v>-0.84878386684104956</v>
+      </c>
+      <c r="D21">
+        <v>0.71066336287050813</v>
+      </c>
+      <c r="E21" s="1">
         <v>-2.1415072339668561E-2</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>1.0399198136875085</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7" ht="14">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="1">
+      <c r="C22">
+        <v>1.4013579759394621</v>
+      </c>
+      <c r="D22">
+        <v>0.17963211511110161</v>
+      </c>
+      <c r="F22" s="1">
         <v>0.57712108036575982</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7" ht="14">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="4">
         <v>-3.3940648480900402</v>
       </c>
-      <c r="D23" s="1">
+      <c r="C23">
+        <v>-0.56086294285357363</v>
+      </c>
+      <c r="D23">
+        <v>-1.7388839211819633</v>
+      </c>
+      <c r="E23" s="1">
         <v>0.76607819028229507</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>0.32615459120408902</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>-2.7446080012490484</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7" ht="14">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="1">
+      <c r="C24">
+        <v>-0.51530599682759548</v>
+      </c>
+      <c r="D24">
+        <v>0.12422479963072107</v>
+      </c>
+      <c r="E24" s="1">
         <v>-2.5538776344065082</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>-0.59100618491250156</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>0.35100139290608917</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7" ht="14">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="4">
         <v>0.31282387775833193</v>
       </c>
-      <c r="D26" s="1">
+      <c r="C26">
+        <v>-1.813471980888042</v>
+      </c>
+      <c r="D26">
+        <v>0.91093471387215841</v>
+      </c>
+      <c r="E26" s="1">
         <v>1.1083415132358481</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>2.3042522798656644</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7" ht="14">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="4">
         <v>2.9816172593664287</v>
       </c>
-      <c r="D27" s="1">
+      <c r="C27">
+        <v>-0.22740698006220894</v>
+      </c>
+      <c r="D27">
+        <v>5.3925372362435275E-2</v>
+      </c>
+      <c r="E27" s="1">
         <v>1.6923283337438486</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>2.0953743444913413</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7" ht="14">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>0.12653346989016581</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.12981371615489459</v>
+        <v>0</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28">
+        <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>0.13066169745090392</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="3"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
@@ -8519,6 +10799,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -8533,7 +10814,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8931,6 +11212,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -8942,15 +11224,728 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.7227963014329688</v>
+      </c>
+      <c r="C3">
+        <v>0.14496421249999999</v>
+      </c>
+      <c r="D3">
+        <v>0.86880324879266846</v>
+      </c>
+      <c r="E3">
+        <v>1.0670569178798901</v>
+      </c>
+      <c r="F3">
+        <v>0.79707570945828765</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0.41132053804356628</v>
+      </c>
+      <c r="J3">
+        <v>9.9284721405990373E-2</v>
+      </c>
+      <c r="K3">
+        <v>1.2619486029363343</v>
+      </c>
+      <c r="L3">
+        <v>0.19779867831026118</v>
+      </c>
+      <c r="M3">
+        <v>0.19984614447224061</v>
+      </c>
+      <c r="N3">
+        <v>0.85025295103404552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.47165236553926576</v>
+      </c>
+      <c r="C4">
+        <v>0.84379077326219976</v>
+      </c>
+      <c r="D4">
+        <v>0.78689043011014659</v>
+      </c>
+      <c r="E4">
+        <v>0.95585061409144212</v>
+      </c>
+      <c r="F4">
+        <v>0.47913023829929746</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>0.8457717017809111</v>
+      </c>
+      <c r="J4">
+        <v>0.13893933249999998</v>
+      </c>
+      <c r="K4">
+        <v>0.87871387280248658</v>
+      </c>
+      <c r="L4">
+        <v>0.91900017623751074</v>
+      </c>
+      <c r="M4">
+        <v>0.75940422151390863</v>
+      </c>
+      <c r="N4">
+        <v>0.65460830570541384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.50108332623217255</v>
+      </c>
+      <c r="C5">
+        <v>0.27793107733272032</v>
+      </c>
+      <c r="D5">
+        <v>0.35326105333333335</v>
+      </c>
+      <c r="E5">
+        <v>0.19099561534344156</v>
+      </c>
+      <c r="F5">
+        <v>0.28476554166878959</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>0.50199230391861893</v>
+      </c>
+      <c r="J5">
+        <v>0.88926975774252559</v>
+      </c>
+      <c r="K5">
+        <v>0.77275247183611784</v>
+      </c>
+      <c r="L5">
+        <v>0.85838719380383954</v>
+      </c>
+      <c r="M5">
+        <v>0.49704517134465159</v>
+      </c>
+      <c r="N5">
+        <v>0.23285276173347527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>2.1274438077844269</v>
+      </c>
+      <c r="C6">
+        <v>1.1710591747229686</v>
+      </c>
+      <c r="D6">
+        <v>1.5223846636722165</v>
+      </c>
+      <c r="E6">
+        <v>0.4916199175</v>
+      </c>
+      <c r="F6">
+        <v>1.4214615276147633</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>0.47732518832404336</v>
+      </c>
+      <c r="J6">
+        <v>0.19870095172126886</v>
+      </c>
+      <c r="K6">
+        <v>0.35326105333333335</v>
+      </c>
+      <c r="L6">
+        <v>0.19236268762667449</v>
+      </c>
+      <c r="M6">
+        <v>0.24977944216038125</v>
+      </c>
+      <c r="N6">
+        <v>0.16225306603977055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.64500107184359057</v>
+      </c>
+      <c r="C7">
+        <v>0.65195899090589238</v>
+      </c>
+      <c r="D7">
+        <v>0.30535242723038425</v>
+      </c>
+      <c r="E7">
+        <v>2.78441041456627</v>
+      </c>
+      <c r="F7">
+        <v>0.5935956166666666</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>2.1018842845295542</v>
+      </c>
+      <c r="J7">
+        <v>1.1836478268914881</v>
+      </c>
+      <c r="K7">
+        <v>1.4256366875503936</v>
+      </c>
+      <c r="L7">
+        <v>0.53320838166666673</v>
+      </c>
+      <c r="M7">
+        <v>1.4852984945440573</v>
+      </c>
+      <c r="N7">
+        <v>0.59853128817667078</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0.4816623788356052</v>
+      </c>
+      <c r="C8">
+        <v>0.14317905089105057</v>
+      </c>
+      <c r="D8">
+        <v>0.1306057501337671</v>
+      </c>
+      <c r="E8">
+        <v>0.20537743387249255</v>
+      </c>
+      <c r="F8">
+        <v>0.29570055972601555</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>0.64028441694524996</v>
+      </c>
+      <c r="J8">
+        <v>0.62578220655472683</v>
+      </c>
+      <c r="K8">
+        <v>0.30812227276811904</v>
+      </c>
+      <c r="L8">
+        <v>2.7954444458991419</v>
+      </c>
+      <c r="M8">
+        <v>0.5935956166666666</v>
+      </c>
+      <c r="N8">
+        <v>0.58433262428359356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0.52887649387198121</v>
+      </c>
+      <c r="C9">
+        <v>0.33402687680756044</v>
+      </c>
+      <c r="D9">
+        <v>0.84537621399373164</v>
+      </c>
+      <c r="E9">
+        <v>0.24388366415241988</v>
+      </c>
+      <c r="F9">
+        <v>0.44460502513489747</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9">
+        <v>1.2323373752737017</v>
+      </c>
+      <c r="J9">
+        <v>0.81762008540604558</v>
+      </c>
+      <c r="K9">
+        <v>4.1287603388694327</v>
+      </c>
+      <c r="L9">
+        <v>1.2418420920999906</v>
+      </c>
+      <c r="M9">
+        <v>3.1260771141213604</v>
+      </c>
+      <c r="N9">
+        <v>3.7399982447008031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.23004290427066995</v>
+      </c>
+      <c r="C10">
+        <v>0.48202123372797384</v>
+      </c>
+      <c r="D10">
+        <v>1.1062549528778554</v>
+      </c>
+      <c r="E10">
+        <v>0.26673625845323318</v>
+      </c>
+      <c r="F10">
+        <v>1.8351851323810016</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>0.53245401146128346</v>
+      </c>
+      <c r="J10">
+        <v>0.12982857988106086</v>
+      </c>
+      <c r="K10">
+        <v>0.13221434919038458</v>
+      </c>
+      <c r="L10">
+        <v>0.18630144542857432</v>
+      </c>
+      <c r="M10">
+        <v>0.29820197776439517</v>
+      </c>
+      <c r="N10">
+        <v>0.38364827962872261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.98896293739649599</v>
+      </c>
+      <c r="C11">
+        <v>0.26350570832823345</v>
+      </c>
+      <c r="D11">
+        <v>0.9653958908835002</v>
+      </c>
+      <c r="E11">
+        <v>0.1836285274019539</v>
+      </c>
+      <c r="F11">
+        <v>1.1611569367721331</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <v>0.54158899734977939</v>
+      </c>
+      <c r="J11">
+        <v>0.33817055647844851</v>
+      </c>
+      <c r="K11">
+        <v>0.8649810184966803</v>
+      </c>
+      <c r="L11">
+        <v>0.24723496526941161</v>
+      </c>
+      <c r="M11">
+        <v>0.4773029433799057</v>
+      </c>
+      <c r="N11">
+        <v>0.29295729995713288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>1.869963965357812</v>
+      </c>
+      <c r="C12">
+        <v>0.88205388182087729</v>
+      </c>
+      <c r="D12">
+        <v>0.34940387512243865</v>
+      </c>
+      <c r="E12">
+        <v>0.17803954656315249</v>
+      </c>
+      <c r="F12">
+        <v>0.53753662840438954</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>0.23177770455562985</v>
+      </c>
+      <c r="J12">
+        <v>0.48154031805116232</v>
+      </c>
+      <c r="K12">
+        <v>1.0724827153689713</v>
+      </c>
+      <c r="L12">
+        <v>0.2158779307076891</v>
+      </c>
+      <c r="M12">
+        <v>1.7901499609746623</v>
+      </c>
+      <c r="N12">
+        <v>0.9149595286652582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>0.26206778511569251</v>
+      </c>
+      <c r="C13">
+        <v>0.79171527461000191</v>
+      </c>
+      <c r="D13">
+        <v>0.41385653485223856</v>
+      </c>
+      <c r="E13">
+        <v>0.26382491169664596</v>
+      </c>
+      <c r="F13">
+        <v>0.2558044818273526</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>0.99404133416154872</v>
+      </c>
+      <c r="J13">
+        <v>0.26012740101445381</v>
+      </c>
+      <c r="K13">
+        <v>0.91654221013322434</v>
+      </c>
+      <c r="L13">
+        <v>0.21914808577188735</v>
+      </c>
+      <c r="M13">
+        <v>1.0808772863018186</v>
+      </c>
+      <c r="N13">
+        <v>0.33189741998921413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>0.4606445016862914</v>
+      </c>
+      <c r="C14">
+        <v>0.26740489184249222</v>
+      </c>
+      <c r="D14">
+        <v>0.27531580918529547</v>
+      </c>
+      <c r="E14">
+        <v>0.48644085533061249</v>
+      </c>
+      <c r="F14">
+        <v>0.27140737279937982</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>1.8539462642690896</v>
+      </c>
+      <c r="J14">
+        <v>0.8734142909805277</v>
+      </c>
+      <c r="K14">
+        <v>0.35395976430218301</v>
+      </c>
+      <c r="L14">
+        <v>0.15193010519538988</v>
+      </c>
+      <c r="M14">
+        <v>0.52946349361263434</v>
+      </c>
+      <c r="N14">
+        <v>1.3333387126022043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>0.8831826893970296</v>
+      </c>
+      <c r="C15">
+        <v>0.66267246614430897</v>
+      </c>
+      <c r="D15">
+        <v>0.80476989608067351</v>
+      </c>
+      <c r="E15">
+        <v>0.45159162324664975</v>
+      </c>
+      <c r="F15">
+        <v>0.36028364561783838</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <v>0.28229359442415519</v>
+      </c>
+      <c r="J15">
+        <v>0.66197031113511351</v>
+      </c>
+      <c r="K15">
+        <v>0.44495797017011524</v>
+      </c>
+      <c r="L15">
+        <v>0.15765206242970806</v>
+      </c>
+      <c r="M15">
+        <v>0.24822844558249244</v>
+      </c>
+      <c r="N15">
+        <v>0.25717366884534321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>0.43064141325223382</v>
+      </c>
+      <c r="C16">
+        <v>0.75781187450513787</v>
+      </c>
+      <c r="D16">
+        <v>1.3532282097698987</v>
+      </c>
+      <c r="E16">
+        <v>0.80119294665270246</v>
+      </c>
+      <c r="F16">
+        <v>0.66119318579996911</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>0.4519913215182379</v>
+      </c>
+      <c r="J16">
+        <v>0.22708064469214639</v>
+      </c>
+      <c r="K16">
+        <v>0.27429543036790333</v>
+      </c>
+      <c r="L16">
+        <v>0.57707488481026159</v>
+      </c>
+      <c r="M16">
+        <v>0.2338186095291199</v>
+      </c>
+      <c r="N16">
+        <v>0.2862801488236193</v>
+      </c>
+    </row>
+    <row r="17" spans="8:14">
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17">
+        <v>0.7234444149822612</v>
+      </c>
+      <c r="J17">
+        <v>0.66204186846875512</v>
+      </c>
+      <c r="K17">
+        <v>0.95057238880382278</v>
+      </c>
+      <c r="L17">
+        <v>0.29567517588140135</v>
+      </c>
+      <c r="M17">
+        <v>0.3018367246505993</v>
+      </c>
+      <c r="N17">
+        <v>0.48090840878809166</v>
+      </c>
+    </row>
+    <row r="18" spans="8:14">
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18">
+        <v>0.40613682712082783</v>
+      </c>
+      <c r="J18">
+        <v>0.74131633984855527</v>
+      </c>
+      <c r="K18">
+        <v>1.4912439251444656</v>
+      </c>
+      <c r="L18">
+        <v>0.71056733300302366</v>
+      </c>
+      <c r="M18">
+        <v>0.66444649440327463</v>
+      </c>
+      <c r="N18">
+        <v>0.49581653855309976</v>
+      </c>
+    </row>
+    <row r="19" spans="8:14">
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19">
+        <v>2.0597816921090812</v>
+      </c>
+      <c r="J19">
+        <v>0.66328228491250585</v>
+      </c>
+      <c r="K19">
+        <v>1.3009665475202725</v>
+      </c>
+      <c r="L19">
+        <v>0.78647083283807617</v>
+      </c>
+      <c r="M19">
+        <v>0.4781565708559013</v>
+      </c>
+      <c r="N19">
+        <v>3.1590337508333337</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9286,7 +12281,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
